--- a/Calculs/PH2/DataBase_PH2_FileA_V6_results.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6_results.xlsx
@@ -734,7 +734,7 @@
         <v>2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="N2" t="n">
         <v>0.03</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ2" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="3">
@@ -1088,53 +1088,53 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.5675</v>
+        <v>23.9675</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.681249999999999</v>
+        <v>8.081249999999999</v>
       </c>
       <c r="AA4" t="n">
         <v>0.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.78375</v>
+        <v>11.98375</v>
       </c>
       <c r="AC4" t="n">
-        <v>21.465</v>
+        <v>20.065</v>
       </c>
       <c r="AD4" t="n">
-        <v>47.538</v>
+        <v>44.47800000000001</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>34.24874999999999</v>
+        <v>32.04875</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.78375</v>
+        <v>11.98375</v>
       </c>
       <c r="AH4" t="n">
-        <v>21.465</v>
+        <v>20.065</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.932605898736213</v>
+        <v>3.686505598042837</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.098693022405251</v>
+        <v>4.76614374537906</v>
       </c>
       <c r="AK4" t="n">
-        <v>-252.7974960533974</v>
+        <v>-236.9775686578587</v>
       </c>
       <c r="AL4" t="n">
-        <v>-262.7506305848441</v>
+        <v>-245.6133893633774</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-341.6737452048605</v>
+        <v>-319.3889446790369</v>
       </c>
       <c r="AO4" t="n">
-        <v>47.538</v>
+        <v>44.47800000000001</v>
       </c>
       <c r="AP4" t="n">
         <v>23.97902845849799</v>
@@ -1143,19 +1143,19 @@
         <v>66.9774724339925</v>
       </c>
       <c r="AR4" t="n">
-        <v>8.749850742821948</v>
+        <v>8.081504445586967</v>
       </c>
       <c r="AS4" t="n">
-        <v>-436.1944125977771</v>
+        <v>-435.8453051539863</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-1074.317434082306</v>
+        <v>-949.5536035333071</v>
       </c>
       <c r="AV4" t="n">
-        <v>34.24874999999999</v>
+        <v>32.04875</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1244,47 +1244,47 @@
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>35.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13.2</v>
       </c>
       <c r="AA5" t="n">
         <v>0.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>26.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD5" t="n">
-        <v>61.2</v>
+        <v>67.32000000000001</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>44</v>
+        <v>48.40000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>26.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.20656640589999</v>
+        <v>6.82722304648999</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.172138671583323</v>
+        <v>5.689352538741656</v>
       </c>
       <c r="AK5" t="n">
-        <v>-165.1132902265164</v>
+        <v>-181.624619249168</v>
       </c>
       <c r="AL5" t="n">
-        <v>-137.594408522097</v>
+        <v>-151.3538493743067</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>61.2</v>
+        <v>67.32000000000001</v>
       </c>
       <c r="AP5" t="n">
         <v>66.62009306754935</v>
@@ -1302,10 +1302,10 @@
         <v>66.62009306754935</v>
       </c>
       <c r="AR5" t="n">
-        <v>10.71868404271976</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-434.555727794922</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>0</v>
@@ -1314,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>44</v>
+        <v>48.40000000000001</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.051456229632132</v>
+        <v>8.765491884090119</v>
       </c>
       <c r="AX5" t="n">
-        <v>-311.4252218510772</v>
+        <v>-342.7994228030443</v>
       </c>
       <c r="AY5" t="n">
         <v>66.62009306754935</v>
@@ -1366,7 +1366,7 @@
         <v>2.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="N6" t="n">
         <v>0.03</v>
@@ -1402,44 +1402,44 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-3.06</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>-2.2</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>89.01189921808276</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>33.37946220678101</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>-5818.181818181821</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-2181.818181818181</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>-3.06</v>
       </c>
       <c r="AP6" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ6" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>-2.2</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="7">
@@ -2479,7 +2479,7 @@
         <v>2.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="N13" t="n">
         <v>0.03</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ13" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="14">
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>56</v>
@@ -3023,19 +3023,19 @@
         <v>6.357523521887794</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4.60088963304997</v>
+        <v>5.394101478330427</v>
       </c>
       <c r="AK16" t="n">
         <v>-392.3547684294014</v>
       </c>
       <c r="AL16" t="n">
-        <v>-126.2475526001571</v>
+        <v>-169.4740330787792</v>
       </c>
       <c r="AM16" t="n">
-        <v>-144.5395530695953</v>
+        <v>-193.4444591099123</v>
       </c>
       <c r="AN16" t="n">
-        <v>-199.2359094093188</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
         <v>66.20250000000001</v>
@@ -3044,19 +3044,19 @@
         <v>22.00814940711833</v>
       </c>
       <c r="AQ16" t="n">
-        <v>139.1366314968293</v>
+        <v>75.07611918153027</v>
       </c>
       <c r="AR16" t="n">
-        <v>7.27832145156578</v>
+        <v>8.554154818008703</v>
       </c>
       <c r="AS16" t="n">
-        <v>-285.4730608681674</v>
+        <v>-407.1281094353321</v>
       </c>
       <c r="AT16" t="n">
-        <v>-330.7977212634166</v>
+        <v>-434.9079540553121</v>
       </c>
       <c r="AU16" t="n">
-        <v>-463.5917462593064</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
         <v>47.77500000000001</v>
@@ -3270,7 +3270,7 @@
         <v>2.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="N18" t="n">
         <v>0.03</v>
@@ -3355,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ18" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="19">
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>39.4</v>
@@ -3814,19 +3814,19 @@
         <v>6.50560359654149</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.379415849564907</v>
+        <v>2.420796122372225</v>
       </c>
       <c r="AK21" t="n">
         <v>-200.2019335282421</v>
       </c>
       <c r="AL21" t="n">
-        <v>-67.2478361243917</v>
+        <v>-69.5003962345952</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>-88.66508498008257</v>
+        <v>-91.59161083278056</v>
       </c>
       <c r="AO21" t="n">
         <v>76.89000000000001</v>
@@ -3835,19 +3835,19 @@
         <v>91.71468396335624</v>
       </c>
       <c r="AQ21" t="n">
-        <v>140.1705271929219</v>
+        <v>129.61161424486</v>
       </c>
       <c r="AR21" t="n">
-        <v>8.149306732738411</v>
+        <v>8.2644669801082</v>
       </c>
       <c r="AS21" t="n">
-        <v>-335.2007229951789</v>
+        <v>-346.6356466381333</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>-448.8576437832245</v>
+        <v>-463.8218007819769</v>
       </c>
       <c r="AV21" t="n">
         <v>55.2</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -4132,19 +4132,19 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.303228094320222</v>
+        <v>1.473254912276077</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>-59.04333072786459</v>
+        <v>-75.95889220176582</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-76.95683738853054</v>
+        <v>-98.77403921554048</v>
       </c>
       <c r="AO23" t="n">
         <v>9.300000000000001</v>
@@ -4153,19 +4153,19 @@
         <v>23.94501565219981</v>
       </c>
       <c r="AQ23" t="n">
-        <v>99.75555681828631</v>
+        <v>66.94743029628485</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.447461528996006</v>
+        <v>1.640581042628978</v>
       </c>
       <c r="AS23" t="n">
-        <v>-89.47890440775485</v>
+        <v>-115.0258444996816</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>-117.556607983371</v>
+        <v>-150.649236441032</v>
       </c>
       <c r="AV23" t="n">
         <v>6.2</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>5</v>
@@ -4450,19 +4450,19 @@
         <v>0.8639215359247652</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.102792874092522</v>
+        <v>1.246960209574697</v>
       </c>
       <c r="AK25" t="n">
         <v>-55.76140318381175</v>
       </c>
       <c r="AL25" t="n">
-        <v>-50.0335649588371</v>
+        <v>-64.41954964611008</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-65.21176800826305</v>
+        <v>-83.76590360832964</v>
       </c>
       <c r="AO25" t="n">
         <v>11.64</v>
@@ -4471,19 +4471,19 @@
         <v>23.80896442687749</v>
       </c>
       <c r="AQ25" t="n">
-        <v>99.63771415293321</v>
+        <v>66.82726123383971</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.807032802714015</v>
+        <v>2.047708764009219</v>
       </c>
       <c r="AS25" t="n">
-        <v>-112.3021321928979</v>
+        <v>-144.4802110230006</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>-147.5435901077918</v>
+        <v>-189.2271803248199</v>
       </c>
       <c r="AV25" t="n">
         <v>8.039999999999999</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V27" t="n">
         <v>36</v>
@@ -4768,19 +4768,19 @@
         <v>7.565612891633421</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2.422825960877931</v>
+        <v>2.484029477478736</v>
       </c>
       <c r="AK27" t="n">
         <v>-337.3107892822459</v>
       </c>
       <c r="AL27" t="n">
-        <v>-87.75903762446164</v>
+        <v>-92.39359445593945</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-114.9353638874028</v>
+        <v>-120.9294511383131</v>
       </c>
       <c r="AO27" t="n">
         <v>65.94</v>
@@ -4789,19 +4789,19 @@
         <v>47.66698681222123</v>
       </c>
       <c r="AQ27" t="n">
-        <v>120.6347525526771</v>
+        <v>109.8759629544403</v>
       </c>
       <c r="AR27" t="n">
-        <v>8.154013720930006</v>
+        <v>8.607578081189006</v>
       </c>
       <c r="AS27" t="n">
-        <v>-434.7843818757681</v>
+        <v>-435.0299177094656</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>-576.7984380824003</v>
+        <v>-664.4946332446407</v>
       </c>
       <c r="AV27" t="n">
         <v>47.34</v>
@@ -5174,7 +5174,7 @@
         <v>2.2</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="N30" t="n">
         <v>0.03</v>
@@ -5259,10 +5259,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ30" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="AY30" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="31">
@@ -6806,13 +6806,13 @@
         <v>26.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB40" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>65</v>
+        <v>103.5</v>
       </c>
       <c r="AD40" t="n">
         <v>143.7</v>
@@ -6822,28 +6822,28 @@
         <v>103.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>65</v>
+        <v>103.5</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.545137077929285</v>
+        <v>13.60648655306896</v>
       </c>
       <c r="AK40" t="n">
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>-192.5859480663863</v>
+        <v>-306.6560925947878</v>
       </c>
       <c r="AM40" t="n">
-        <v>-221.6309468293995</v>
+        <v>-352.9046675523198</v>
       </c>
       <c r="AN40" t="n">
-        <v>-307.6930387909686</v>
+        <v>-489.9419992141223</v>
       </c>
       <c r="AO40" t="n">
         <v>143.7</v>
@@ -7078,7 +7078,7 @@
         <v>2.2</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="N42" t="n">
         <v>0.03</v>
@@ -7163,10 +7163,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ42" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="AY42" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="43">
@@ -8982,7 +8982,7 @@
         <v>2.2</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="N54" t="n">
         <v>0.03</v>
@@ -9067,10 +9067,10 @@
         <v>0</v>
       </c>
       <c r="AP54" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ54" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR54" t="n">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="AY54" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="55">
@@ -9614,7 +9614,7 @@
         <v>2.2</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="N58" t="n">
         <v>0.03</v>
@@ -9699,10 +9699,10 @@
         <v>0</v>
       </c>
       <c r="AP58" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ58" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR58" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="AY58" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="59">
@@ -10564,7 +10564,7 @@
         <v>2.2</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>1e-05</v>
       </c>
       <c r="N64" t="n">
         <v>0.03</v>
@@ -10649,10 +10649,10 @@
         <v>0</v>
       </c>
       <c r="AP64" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ64" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR64" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="AY64" t="n">
-        <v>499.9171195021776</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
   </sheetData>

--- a/Calculs/PH2/DataBase_PH2_FileA_V6_results.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6_results.xlsx
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>88.5</v>
@@ -5559,19 +5559,19 @@
         <v>13.46352339659107</v>
       </c>
       <c r="AJ32" t="n">
-        <v>4.455248059335668</v>
+        <v>4.528475035774111</v>
       </c>
       <c r="AK32" t="n">
         <v>-296.2038857506017</v>
       </c>
       <c r="AL32" t="n">
-        <v>-91.92454763385616</v>
+        <v>-94.61611146573978</v>
       </c>
       <c r="AM32" t="n">
         <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>-147.7959216311333</v>
+        <v>-151.9822441369318</v>
       </c>
       <c r="AO32" t="n">
         <v>167.475</v>
@@ -5580,19 +5580,19 @@
         <v>133.900223728827</v>
       </c>
       <c r="AQ32" t="n">
-        <v>185.2599694946378</v>
+        <v>174.3477017488384</v>
       </c>
       <c r="AR32" t="n">
-        <v>15.94572315678288</v>
+        <v>16.4280035580469</v>
       </c>
       <c r="AS32" t="n">
-        <v>-436.140255689923</v>
+        <v>-436.8059058780337</v>
       </c>
       <c r="AT32" t="n">
         <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>-1325.691521115011</v>
+        <v>-1611.833748642285</v>
       </c>
       <c r="AV32" t="n">
         <v>120.5</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V33" t="n">
         <v>43</v>
@@ -5718,19 +5718,19 @@
         <v>8.918516721377406</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3.000660886176049</v>
+        <v>3.057998619628804</v>
       </c>
       <c r="AK33" t="n">
         <v>-320.2101776850748</v>
       </c>
       <c r="AL33" t="n">
-        <v>-92.9901475319561</v>
+        <v>-96.66323130314611</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>-122.2776380938699</v>
+        <v>-127.038217372056</v>
       </c>
       <c r="AO33" t="n">
         <v>92.57249999999999</v>
@@ -5739,19 +5739,19 @@
         <v>70.77518339887844</v>
       </c>
       <c r="AQ33" t="n">
-        <v>141.040918699211</v>
+        <v>130.4778122285267</v>
       </c>
       <c r="AR33" t="n">
-        <v>10.51549738354495</v>
+        <v>11.04441460894119</v>
       </c>
       <c r="AS33" t="n">
-        <v>-435.1869250284208</v>
+        <v>-435.489988107619</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>-725.9603208763455</v>
+        <v>-834.40887452403</v>
       </c>
       <c r="AV33" t="n">
         <v>66.47999999999999</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>77.5</v>
@@ -5877,19 +5877,19 @@
         <v>14.18631716523623</v>
       </c>
       <c r="AJ34" t="n">
-        <v>5.010424827005819</v>
+        <v>5.110392028197437</v>
       </c>
       <c r="AK34" t="n">
         <v>-320.9116985066808</v>
       </c>
       <c r="AL34" t="n">
-        <v>-104.9674188659421</v>
+        <v>-108.6473749889363</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>-169.7204776561403</v>
+        <v>-175.4798145413385</v>
       </c>
       <c r="AO34" t="n">
         <v>132.33</v>
@@ -5898,19 +5898,19 @@
         <v>95.56178411517728</v>
       </c>
       <c r="AQ34" t="n">
-        <v>140.7774040096525</v>
+        <v>131.3017715416934</v>
       </c>
       <c r="AR34" t="n">
-        <v>16.43668070723094</v>
+        <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>-436.6665611319727</v>
+        <v>0</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>-1566.067348379137</v>
+        <v>0</v>
       </c>
       <c r="AV34" t="n">
         <v>95.04000000000001</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -6036,19 +6036,19 @@
         <v>1.434726836446489</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.732058273622414</v>
+        <v>1.798393316070585</v>
       </c>
       <c r="AK35" t="n">
         <v>-92.60375885883025</v>
       </c>
       <c r="AL35" t="n">
-        <v>-78.58325183420408</v>
+        <v>-84.89475978057037</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>-102.4222997534361</v>
+        <v>-110.5659812851409</v>
       </c>
       <c r="AO35" t="n">
         <v>18.6225</v>
@@ -6057,19 +6057,19 @@
         <v>23.80896442687749</v>
       </c>
       <c r="AQ35" t="n">
-        <v>99.63771415293321</v>
+        <v>88.72652104289106</v>
       </c>
       <c r="AR35" t="n">
-        <v>2.859815764312309</v>
+        <v>2.964962881442812</v>
       </c>
       <c r="AS35" t="n">
-        <v>-179.7274316054276</v>
+        <v>-194.1811338553977</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>-236.1690907536592</v>
+        <v>-254.89414886677</v>
       </c>
       <c r="AV35" t="n">
         <v>12.88</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V37" t="n">
         <v>4</v>
@@ -6323,80 +6323,80 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>4</v>
+        <v>-1.774999999999999</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.6</v>
+        <v>4.5375</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>4</v>
+        <v>-1.774999999999999</v>
       </c>
       <c r="AC37" t="n">
-        <v>6.6</v>
+        <v>4.5375</v>
       </c>
       <c r="AD37" t="n">
-        <v>15.3</v>
+        <v>4.41</v>
       </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>10.6</v>
+        <v>2.7625</v>
       </c>
       <c r="AG37" t="n">
-        <v>4</v>
+        <v>-1.774999999999999</v>
       </c>
       <c r="AH37" t="n">
-        <v>6.6</v>
+        <v>4.5375</v>
       </c>
       <c r="AI37" t="n">
-        <v>1.234173622749663</v>
+        <v>9.699286874802125</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1.38901392538371</v>
+        <v>0.9915218795390652</v>
       </c>
       <c r="AK37" t="n">
-        <v>-79.65914740544537</v>
+        <v>-230.5194805194806</v>
       </c>
       <c r="AL37" t="n">
-        <v>-63.0193757115124</v>
+        <v>-46.80557350723782</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>-82.13695970506417</v>
+        <v>-60.95905546149166</v>
       </c>
       <c r="AO37" t="n">
-        <v>15.3</v>
+        <v>4.41</v>
       </c>
       <c r="AP37" t="n">
         <v>23.80896442687749</v>
       </c>
       <c r="AQ37" t="n">
-        <v>99.63771415293321</v>
+        <v>88.72652104289106</v>
       </c>
       <c r="AR37" t="n">
-        <v>2.361853156392015</v>
+        <v>0.7184801232999065</v>
       </c>
       <c r="AS37" t="n">
-        <v>-147.6386792085913</v>
+        <v>-45.94993742661462</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
       </c>
       <c r="AU37" t="n">
-        <v>-193.9867878618286</v>
+        <v>-60.29628415274358</v>
       </c>
       <c r="AV37" t="n">
-        <v>10.6</v>
+        <v>2.7625</v>
       </c>
       <c r="AW37" t="n">
-        <v>2.391229739970885</v>
+        <v>0.6348932589432051</v>
       </c>
       <c r="AX37" t="n">
-        <v>-213.4319687170217</v>
+        <v>-55.58617697333279</v>
       </c>
       <c r="AY37" t="n">
         <v>23.80896442687749</v>
@@ -6479,47 +6479,47 @@
         <v>27.5</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Y38" t="n">
-        <v>77</v>
+        <v>88.55</v>
       </c>
       <c r="Z38" t="n">
-        <v>27.5</v>
+        <v>31.625</v>
       </c>
       <c r="AA38" t="n">
         <v>0.25</v>
       </c>
       <c r="AB38" t="n">
-        <v>57.75</v>
+        <v>66.41249999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>46.75</v>
+        <v>53.7625</v>
       </c>
       <c r="AD38" t="n">
-        <v>145.2</v>
+        <v>166.98</v>
       </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="n">
-        <v>104.5</v>
+        <v>120.175</v>
       </c>
       <c r="AG38" t="n">
-        <v>57.75</v>
+        <v>66.41249999999999</v>
       </c>
       <c r="AH38" t="n">
-        <v>46.75</v>
+        <v>53.7625</v>
       </c>
       <c r="AI38" t="n">
-        <v>7.722350714262173</v>
+        <v>8.880703321401503</v>
       </c>
       <c r="AJ38" t="n">
-        <v>6.251426768688431</v>
+        <v>7.189140783991696</v>
       </c>
       <c r="AK38" t="n">
-        <v>-141.3702241770419</v>
+        <v>-162.5757578035983</v>
       </c>
       <c r="AL38" t="n">
-        <v>-114.4425624290339</v>
+        <v>-131.608946793389</v>
       </c>
       <c r="AM38" t="n">
         <v>0</v>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>145.2</v>
+        <v>166.98</v>
       </c>
       <c r="AP38" t="n">
         <v>178.5298517827331</v>
@@ -6537,10 +6537,10 @@
         <v>178.5298517827331</v>
       </c>
       <c r="AR38" t="n">
-        <v>12.93509006707755</v>
+        <v>14.30526671843567</v>
       </c>
       <c r="AS38" t="n">
-        <v>-372.0681170595714</v>
+        <v>-429.4780696535611</v>
       </c>
       <c r="AT38" t="n">
         <v>0</v>
@@ -6549,13 +6549,13 @@
         <v>0</v>
       </c>
       <c r="AV38" t="n">
-        <v>104.5</v>
+        <v>120.175</v>
       </c>
       <c r="AW38" t="n">
-        <v>9.888573033193394</v>
+        <v>11.12821357069855</v>
       </c>
       <c r="AX38" t="n">
-        <v>-266.1841462764743</v>
+        <v>-306.7758997505456</v>
       </c>
       <c r="AY38" t="n">
         <v>178.5298517827331</v>
@@ -6641,53 +6641,53 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>38.5</v>
+        <v>23.1</v>
       </c>
       <c r="Z39" t="n">
-        <v>15.4</v>
+        <v>10.025</v>
       </c>
       <c r="AA39" t="n">
         <v>0.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>19.25</v>
+        <v>11.55</v>
       </c>
       <c r="AC39" t="n">
-        <v>34.65</v>
+        <v>21.575</v>
       </c>
       <c r="AD39" t="n">
-        <v>75.075</v>
+        <v>46.2225</v>
       </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>53.9</v>
+        <v>33.125</v>
       </c>
       <c r="AG39" t="n">
-        <v>19.25</v>
+        <v>11.55</v>
       </c>
       <c r="AH39" t="n">
-        <v>34.65</v>
+        <v>21.575</v>
       </c>
       <c r="AI39" t="n">
-        <v>5.939460559482756</v>
+        <v>3.56367633568966</v>
       </c>
       <c r="AJ39" t="n">
-        <v>6.222568333566984</v>
+        <v>3.874514048967033</v>
       </c>
       <c r="AK39" t="n">
-        <v>-383.359646888706</v>
+        <v>-230.0157881332235</v>
       </c>
       <c r="AL39" t="n">
-        <v>-241.4875528013287</v>
+        <v>-150.3634618091967</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>-315.76532218224</v>
+        <v>-196.6128954136169</v>
       </c>
       <c r="AO39" t="n">
-        <v>75.075</v>
+        <v>46.2225</v>
       </c>
       <c r="AP39" t="n">
         <v>23.80896442687749</v>
@@ -6696,19 +6696,19 @@
         <v>153.0620354309132</v>
       </c>
       <c r="AR39" t="n">
-        <v>9.387906252515888</v>
+        <v>5.899692317645376</v>
       </c>
       <c r="AS39" t="n">
-        <v>-435.3024837802026</v>
+        <v>-325.7360042754744</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>-762.7795339560085</v>
+        <v>-430.4163723966109</v>
       </c>
       <c r="AV39" t="n">
-        <v>53.9</v>
+        <v>33.125</v>
       </c>
       <c r="AW39" t="n">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0.04</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S40" t="n">
         <v>2.91e-05</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>77</v>
@@ -6797,13 +6797,13 @@
         <v>26.5</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y40" t="n">
-        <v>77</v>
+        <v>96.25</v>
       </c>
       <c r="Z40" t="n">
-        <v>26.5</v>
+        <v>33.125</v>
       </c>
       <c r="AA40" t="n">
         <v>1</v>
@@ -6812,71 +6812,71 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>103.5</v>
+        <v>129.375</v>
       </c>
       <c r="AD40" t="n">
-        <v>143.7</v>
+        <v>179.625</v>
       </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>103.5</v>
+        <v>129.375</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>103.5</v>
+        <v>129.375</v>
       </c>
       <c r="AI40" t="n">
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>13.60648655306896</v>
+        <v>16.51809352884182</v>
       </c>
       <c r="AK40" t="n">
         <v>0</v>
       </c>
       <c r="AL40" t="n">
-        <v>-306.6560925947878</v>
+        <v>-337.1683115731751</v>
       </c>
       <c r="AM40" t="n">
-        <v>-352.9046675523198</v>
+        <v>-389.183100882444</v>
       </c>
       <c r="AN40" t="n">
-        <v>-489.9419992141223</v>
+        <v>0</v>
       </c>
       <c r="AO40" t="n">
-        <v>143.7</v>
+        <v>179.625</v>
       </c>
       <c r="AP40" t="n">
         <v>0</v>
       </c>
       <c r="AQ40" t="n">
-        <v>189.3975751373099</v>
+        <v>150.2365806625913</v>
       </c>
       <c r="AR40" t="n">
-        <v>13.461182347848</v>
+        <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>-435.3806549058909</v>
+        <v>0</v>
       </c>
       <c r="AT40" t="n">
-        <v>-435.7330929671318</v>
+        <v>0</v>
       </c>
       <c r="AU40" t="n">
-        <v>-979.0073887385623</v>
+        <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>103.5</v>
+        <v>129.375</v>
       </c>
       <c r="AW40" t="n">
-        <v>16.66666666666667</v>
+        <v>11.20001191486468</v>
       </c>
       <c r="AX40" t="n">
-        <v>-450.8003571278285</v>
+        <v>-342.7403375781192</v>
       </c>
       <c r="AY40" t="n">
-        <v>104.1385417966478</v>
+        <v>150.2365806625913</v>
       </c>
     </row>
     <row r="41">
@@ -6959,53 +6959,53 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>20</v>
+        <v>10.375</v>
       </c>
       <c r="Z41" t="n">
-        <v>9.5</v>
+        <v>6.1875</v>
       </c>
       <c r="AA41" t="n">
         <v>0.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>10</v>
+        <v>5.1875</v>
       </c>
       <c r="AC41" t="n">
-        <v>19.5</v>
+        <v>11.375</v>
       </c>
       <c r="AD41" t="n">
-        <v>41.25</v>
+        <v>23.2875</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>29.5</v>
+        <v>16.5625</v>
       </c>
       <c r="AG41" t="n">
-        <v>10</v>
+        <v>5.1875</v>
       </c>
       <c r="AH41" t="n">
-        <v>19.5</v>
+        <v>11.375</v>
       </c>
       <c r="AI41" t="n">
-        <v>1.832556941755434</v>
+        <v>0.9506389135356316</v>
       </c>
       <c r="AJ41" t="n">
-        <v>3.325073647268432</v>
+        <v>1.939626294239915</v>
       </c>
       <c r="AK41" t="n">
-        <v>-87.71853429612207</v>
+        <v>-45.50398966611332</v>
       </c>
       <c r="AL41" t="n">
-        <v>-148.9001173119034</v>
+        <v>-86.85840176527701</v>
       </c>
       <c r="AM41" t="n">
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>-190.5088027171508</v>
+        <v>-111.1301349183379</v>
       </c>
       <c r="AO41" t="n">
-        <v>41.25</v>
+        <v>23.2875</v>
       </c>
       <c r="AP41" t="n">
         <v>54.2363335116201</v>
@@ -7014,25 +7014,25 @@
         <v>75.11664946432565</v>
       </c>
       <c r="AR41" t="n">
-        <v>5.042637442173226</v>
+        <v>2.915933415275635</v>
       </c>
       <c r="AS41" t="n">
-        <v>-319.9850484192986</v>
+        <v>-180.4699695397257</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>-412.6301888327215</v>
+        <v>-232.6393184589111</v>
       </c>
       <c r="AV41" t="n">
-        <v>29.5</v>
+        <v>16.5625</v>
       </c>
       <c r="AW41" t="n">
-        <v>3.924372658689329</v>
+        <v>2.24452004267548</v>
       </c>
       <c r="AX41" t="n">
-        <v>-262.784092183683</v>
+        <v>-147.4152288353039</v>
       </c>
       <c r="AY41" t="n">
         <v>54.2363335116201</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>94</v>
@@ -7463,19 +7463,19 @@
         <v>14.30023953988204</v>
       </c>
       <c r="AJ44" t="n">
-        <v>4.733701063044142</v>
+        <v>4.811504725509991</v>
       </c>
       <c r="AK44" t="n">
         <v>-314.6120368424469</v>
       </c>
       <c r="AL44" t="n">
-        <v>-97.66983186097218</v>
+        <v>-100.5296184323485</v>
       </c>
       <c r="AM44" t="n">
         <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>-157.0331667330791</v>
+        <v>-161.4811343954901</v>
       </c>
       <c r="AO44" t="n">
         <v>177.9</v>
@@ -7484,19 +7484,19 @@
         <v>133.900223728827</v>
       </c>
       <c r="AQ44" t="n">
-        <v>185.2599694946378</v>
+        <v>174.3477017488384</v>
       </c>
       <c r="AR44" t="n">
-        <v>16.56534479593449</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>-436.8611379159548</v>
+        <v>0</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
       </c>
       <c r="AU44" t="n">
-        <v>-1640.913317458794</v>
+        <v>0</v>
       </c>
       <c r="AV44" t="n">
         <v>128</v>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V45" t="n">
         <v>45</v>
@@ -7622,19 +7622,19 @@
         <v>8.408591221921448</v>
       </c>
       <c r="AJ45" t="n">
-        <v>2.865541953020021</v>
+        <v>2.920098184460784</v>
       </c>
       <c r="AK45" t="n">
         <v>-301.3665999874946</v>
       </c>
       <c r="AL45" t="n">
-        <v>-88.66638871889295</v>
+        <v>-92.15963124744165</v>
       </c>
       <c r="AM45" t="n">
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>-116.5970902355346</v>
+        <v>-121.1246117151098</v>
       </c>
       <c r="AO45" t="n">
         <v>87.75</v>
@@ -7643,19 +7643,19 @@
         <v>71.0116055049231</v>
       </c>
       <c r="AQ45" t="n">
-        <v>141.256561974684</v>
+        <v>130.6937967095548</v>
       </c>
       <c r="AR45" t="n">
-        <v>9.666599218459508</v>
+        <v>10.15255563260925</v>
       </c>
       <c r="AS45" t="n">
-        <v>-434.869932992187</v>
+        <v>-435.120190294209</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>-611.6260646322489</v>
+        <v>-701.2389716402863</v>
       </c>
       <c r="AV45" t="n">
         <v>63</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V51" t="n">
         <v>35</v>
@@ -8576,19 +8576,19 @@
         <v>6.579394733435876</v>
       </c>
       <c r="AJ51" t="n">
-        <v>2.096120187548495</v>
+        <v>2.136173624160508</v>
       </c>
       <c r="AK51" t="n">
         <v>-236.226406528323</v>
       </c>
       <c r="AL51" t="n">
-        <v>-64.95853176306252</v>
+        <v>-67.5243748674327</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>-85.41739150702287</v>
+        <v>-88.7429076876092</v>
       </c>
       <c r="AO51" t="n">
         <v>67.18650000000001</v>
@@ -8597,19 +8597,19 @@
         <v>70.77518339887844</v>
       </c>
       <c r="AQ51" t="n">
-        <v>141.040918699211</v>
+        <v>130.4778122285267</v>
       </c>
       <c r="AR51" t="n">
-        <v>7.546678549414673</v>
+        <v>7.679481567811216</v>
       </c>
       <c r="AS51" t="n">
-        <v>-338.6202600328828</v>
+        <v>-352.0045370133279</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
       </c>
       <c r="AU51" t="n">
-        <v>-451.4554923150037</v>
+        <v>-468.9513614886149</v>
       </c>
       <c r="AV51" t="n">
         <v>48.30625000000001</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>78.5</v>
@@ -9367,19 +9367,19 @@
         <v>11.94222131788021</v>
       </c>
       <c r="AJ56" t="n">
-        <v>3.828728800991587</v>
+        <v>3.891658233868376</v>
       </c>
       <c r="AK56" t="n">
         <v>-262.7345201290648</v>
       </c>
       <c r="AL56" t="n">
-        <v>-78.99765812284514</v>
+        <v>-81.31072079087011</v>
       </c>
       <c r="AM56" t="n">
         <v>0</v>
       </c>
       <c r="AN56" t="n">
-        <v>-127.0121201517552</v>
+        <v>-130.6097410551758</v>
       </c>
       <c r="AO56" t="n">
         <v>147.225</v>
@@ -9388,19 +9388,19 @@
         <v>133.900223728827</v>
       </c>
       <c r="AQ56" t="n">
-        <v>185.2599694946378</v>
+        <v>174.3477017488384</v>
       </c>
       <c r="AR56" t="n">
-        <v>13.40932772282607</v>
+        <v>14.07475655668353</v>
       </c>
       <c r="AS56" t="n">
-        <v>-434.8426811520162</v>
+        <v>-435.1652417600425</v>
       </c>
       <c r="AT56" t="n">
         <v>0</v>
       </c>
       <c r="AU56" t="n">
-        <v>-758.2850684570626</v>
+        <v>-897.7103859472162</v>
       </c>
       <c r="AV56" t="n">
         <v>106</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V57" t="n">
         <v>35.5</v>
@@ -9526,19 +9526,19 @@
         <v>7.575894612742514</v>
       </c>
       <c r="AJ57" t="n">
-        <v>2.445360256677699</v>
+        <v>2.503838820942616</v>
       </c>
       <c r="AK57" t="n">
         <v>-260.227153011369</v>
       </c>
       <c r="AL57" t="n">
-        <v>-71.44105054519444</v>
+        <v>-74.6926266824359</v>
       </c>
       <c r="AM57" t="n">
         <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>-103.9114175669708</v>
+        <v>-108.5431285125431</v>
       </c>
       <c r="AO57" t="n">
         <v>68.92500000000001</v>
@@ -9547,19 +9547,19 @@
         <v>64.49328836319663</v>
       </c>
       <c r="AQ57" t="n">
-        <v>135.406771406439</v>
+        <v>124.8439447755377</v>
       </c>
       <c r="AR57" t="n">
-        <v>8.402673425031264</v>
+        <v>8.570664648879047</v>
       </c>
       <c r="AS57" t="n">
-        <v>-358.0670554542751</v>
+        <v>-374.7191385480178</v>
       </c>
       <c r="AT57" t="n">
         <v>0</v>
       </c>
       <c r="AU57" t="n">
-        <v>-532.5912627756439</v>
+        <v>-556.5951208661578</v>
       </c>
       <c r="AV57" t="n">
         <v>49.5</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>75.5</v>
@@ -10317,19 +10317,19 @@
         <v>13.23883839104407</v>
       </c>
       <c r="AJ62" t="n">
-        <v>4.070080926290974</v>
+        <v>4.154071337722519</v>
       </c>
       <c r="AK62" t="n">
         <v>-300.6745282348117</v>
       </c>
       <c r="AL62" t="n">
-        <v>-85.33597177340279</v>
+        <v>-88.46336500082514</v>
       </c>
       <c r="AM62" t="n">
         <v>0</v>
       </c>
       <c r="AN62" t="n">
-        <v>-147.3834229245032</v>
+        <v>-152.5854480972197</v>
       </c>
       <c r="AO62" t="n">
         <v>140.925</v>
@@ -10338,19 +10338,19 @@
         <v>113.0123605501379</v>
       </c>
       <c r="AQ62" t="n">
-        <v>165.0943523912812</v>
+        <v>153.9603996531451</v>
       </c>
       <c r="AR62" t="n">
-        <v>14.87537901018126</v>
+        <v>15.55919839444363</v>
       </c>
       <c r="AS62" t="n">
-        <v>-435.5261167533102</v>
+        <v>-436.0550646061855</v>
       </c>
       <c r="AT62" t="n">
         <v>0</v>
       </c>
       <c r="AU62" t="n">
-        <v>-1140.201162231899</v>
+        <v>-1383.697757940281</v>
       </c>
       <c r="AV62" t="n">
         <v>101.5</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V63" t="n">
         <v>32.5</v>
@@ -10476,19 +10476,19 @@
         <v>6.072871438054373</v>
       </c>
       <c r="AJ63" t="n">
-        <v>2.02179904463079</v>
+        <v>2.060291496813996</v>
       </c>
       <c r="AK63" t="n">
         <v>-217.6536555465239</v>
       </c>
       <c r="AL63" t="n">
-        <v>-62.55906315166334</v>
+        <v>-65.02373982458379</v>
       </c>
       <c r="AM63" t="n">
         <v>0</v>
       </c>
       <c r="AN63" t="n">
-        <v>-82.26572477729378</v>
+        <v>-85.46014271010522</v>
       </c>
       <c r="AO63" t="n">
         <v>62.925</v>
@@ -10497,19 +10497,19 @@
         <v>71.0116055049231</v>
       </c>
       <c r="AQ63" t="n">
-        <v>141.256561974684</v>
+        <v>130.6937967095548</v>
       </c>
       <c r="AR63" t="n">
-        <v>7.105009886312109</v>
+        <v>7.231044927263758</v>
       </c>
       <c r="AS63" t="n">
-        <v>-316.2435370251875</v>
+        <v>-328.704692413255</v>
       </c>
       <c r="AT63" t="n">
         <v>0</v>
       </c>
       <c r="AU63" t="n">
-        <v>-421.5866349224818</v>
+        <v>-437.8740705656239</v>
       </c>
       <c r="AV63" t="n">
         <v>45.2</v>

--- a/Calculs/PH2/DataBase_PH2_FileA_V6_results.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6_results.xlsx
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V39" t="n">
         <v>38.5</v>
@@ -6672,19 +6672,19 @@
         <v>3.56367633568966</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3.874514048967033</v>
+        <v>4.714500096503395</v>
       </c>
       <c r="AK39" t="n">
         <v>-230.0157881332235</v>
       </c>
       <c r="AL39" t="n">
-        <v>-150.3634618091967</v>
+        <v>-222.5521801052012</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>-196.6128954136169</v>
+        <v>-289.8494588368063</v>
       </c>
       <c r="AO39" t="n">
         <v>46.2225</v>
@@ -6693,19 +6693,19 @@
         <v>23.80896442687749</v>
       </c>
       <c r="AQ39" t="n">
-        <v>153.0620354309132</v>
+        <v>88.72652104289106</v>
       </c>
       <c r="AR39" t="n">
-        <v>5.899692317645376</v>
+        <v>7.247501449172267</v>
       </c>
       <c r="AS39" t="n">
-        <v>-325.7360042754744</v>
+        <v>-435.131375703652</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>-430.4163723966109</v>
+        <v>-696.1390778591737</v>
       </c>
       <c r="AV39" t="n">
         <v>33.125</v>

--- a/Calculs/PH2/DataBase_PH2_FileA_V6_results.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY64"/>
+  <dimension ref="A1:AY65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,13 +935,13 @@
         <v>16.5375</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>40.39875</v>
+        <v>53.865</v>
       </c>
       <c r="AC3" t="n">
-        <v>30.00375</v>
+        <v>16.5375</v>
       </c>
       <c r="AD3" t="n">
         <v>97.52400000000002</v>
@@ -951,28 +951,28 @@
         <v>70.4025</v>
       </c>
       <c r="AG3" t="n">
-        <v>40.39875</v>
+        <v>53.865</v>
       </c>
       <c r="AH3" t="n">
-        <v>30.00375</v>
+        <v>16.5375</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.272699796987348</v>
+        <v>11.03026639598312</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.348072127911476</v>
+        <v>2.947756290974824</v>
       </c>
       <c r="AK3" t="n">
-        <v>-268.874693632811</v>
+        <v>-358.4995915104147</v>
       </c>
       <c r="AL3" t="n">
-        <v>-158.1900383423615</v>
+        <v>-87.19135971626226</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-248.6170541478877</v>
+        <v>-137.0330219712766</v>
       </c>
       <c r="AO3" t="n">
         <v>97.52400000000002</v>
@@ -1088,53 +1088,53 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.9675</v>
+        <v>20.7675</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.081249999999999</v>
+        <v>6.88125</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.98375</v>
+        <v>20.7675</v>
       </c>
       <c r="AC4" t="n">
-        <v>20.065</v>
+        <v>6.88125</v>
       </c>
       <c r="AD4" t="n">
-        <v>44.47800000000001</v>
+        <v>38.358</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>32.04875</v>
+        <v>27.64875</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.98375</v>
+        <v>20.7675</v>
       </c>
       <c r="AH4" t="n">
-        <v>20.065</v>
+        <v>6.88125</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.686505598042837</v>
+        <v>6.388609993312163</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.76614374537906</v>
+        <v>1.634539080383236</v>
       </c>
       <c r="AK4" t="n">
-        <v>-236.9775686578587</v>
+        <v>-410.6754277335625</v>
       </c>
       <c r="AL4" t="n">
-        <v>-245.6133893633774</v>
+        <v>-84.23260082515529</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-319.3889446790369</v>
+        <v>-109.5337740130886</v>
       </c>
       <c r="AO4" t="n">
-        <v>44.47800000000001</v>
+        <v>38.358</v>
       </c>
       <c r="AP4" t="n">
         <v>23.97902845849799</v>
@@ -1143,19 +1143,19 @@
         <v>66.9774724339925</v>
       </c>
       <c r="AR4" t="n">
-        <v>8.081504445586967</v>
+        <v>6.685491552675179</v>
       </c>
       <c r="AS4" t="n">
-        <v>-435.8453051539863</v>
+        <v>-435.1479073571086</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-949.5536035333071</v>
+        <v>-700.373789559708</v>
       </c>
       <c r="AV4" t="n">
-        <v>32.04875</v>
+        <v>27.64875</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1244,47 +1244,47 @@
         <v>12</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.2</v>
+        <v>41.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.2</v>
+        <v>15.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>26.4</v>
+        <v>41.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>22</v>
+        <v>15.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>67.32000000000001</v>
+        <v>79.56</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>48.40000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="AG5" t="n">
-        <v>26.4</v>
+        <v>41.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>15.6</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.82722304648999</v>
+        <v>10.75804843689332</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.689352538741656</v>
+        <v>4.034268163834994</v>
       </c>
       <c r="AK5" t="n">
-        <v>-181.624619249168</v>
+        <v>-286.1963697259617</v>
       </c>
       <c r="AL5" t="n">
-        <v>-151.3538493743067</v>
+        <v>-107.3236386472356</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>67.32000000000001</v>
+        <v>79.56</v>
       </c>
       <c r="AP5" t="n">
         <v>66.62009306754935</v>
@@ -1314,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>48.40000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.765491884090119</v>
+        <v>10.1292078134632</v>
       </c>
       <c r="AX5" t="n">
-        <v>-342.7994228030443</v>
+        <v>-405.7959857316097</v>
       </c>
       <c r="AY5" t="n">
         <v>66.62009306754935</v>
@@ -1402,44 +1402,44 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.6000000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-3.06</v>
+        <v>-2.7</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>-2.2</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>89.01189921808276</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>33.37946220678101</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-5818.181818181821</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-2181.818181818181</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-3.06</v>
+        <v>-2.7</v>
       </c>
       <c r="AP6" t="n">
         <v>0.7804308298384421</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>-2.2</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -1483,18 +1483,14 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>File A - 2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Travée 1</t>
-        </is>
-      </c>
+          <t>File A - 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>25</v>
       </c>
@@ -1519,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="n">
         <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005654</v>
+        <v>1e-05</v>
       </c>
       <c r="N7" t="n">
         <v>0.03</v>
@@ -1543,101 +1539,101 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>57.93</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>41.66</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.26</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.570973102936515</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.920016885550896</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-266.664344260211</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-85.98027286830938</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-110.0066214664163</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>57.93</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>54.2363335116201</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ7" t="n">
-        <v>75.11664946432565</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.382082925914158</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-435.1366531432237</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-684.9242430384055</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>41.66</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.441128718036592</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>-371.4072080256443</v>
+        <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>54.2363335116201</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="8">
@@ -1651,7 +1647,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Appui 1</t>
+          <t>Travée 1</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1678,16 +1674,16 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L8" t="n">
         <v>2.2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0008470000000000001</v>
+        <v>0.0005654</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1708,95 +1704,95 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="W8" t="n">
-        <v>23.5</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.32</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.2</v>
+        <v>30.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.98</v>
+        <v>11.26</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>44.2</v>
+        <v>30.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.98</v>
+        <v>11.26</v>
       </c>
       <c r="AD8" t="n">
-        <v>83.64000000000001</v>
+        <v>57.93</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>60.18000000000001</v>
+        <v>41.66</v>
       </c>
       <c r="AG8" t="n">
-        <v>44.2</v>
+        <v>30.4</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.98</v>
+        <v>11.26</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.36152818548807</v>
+        <v>5.570973102936515</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3.043871571041538</v>
+        <v>1.920016885550896</v>
       </c>
       <c r="AK8" t="n">
-        <v>-344.8980727156937</v>
+        <v>-266.664344260211</v>
       </c>
       <c r="AL8" t="n">
-        <v>-88.11315584643523</v>
+        <v>-85.98027286830938</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-148.6367953427502</v>
+        <v>-110.0066214664163</v>
       </c>
       <c r="AO8" t="n">
-        <v>83.64000000000001</v>
+        <v>57.93</v>
       </c>
       <c r="AP8" t="n">
-        <v>60.33887158132699</v>
+        <v>54.2363335116201</v>
       </c>
       <c r="AQ8" t="n">
-        <v>114.306818268204</v>
+        <v>75.11664946432565</v>
       </c>
       <c r="AR8" t="n">
-        <v>11.10000674563792</v>
+        <v>7.382082925914158</v>
       </c>
       <c r="AS8" t="n">
-        <v>-435.168964193099</v>
+        <v>-435.1366531432237</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>-936.7533295180544</v>
+        <v>-684.9242430384055</v>
       </c>
       <c r="AV8" t="n">
-        <v>60.18000000000001</v>
+        <v>41.66</v>
       </c>
       <c r="AW8" t="n">
-        <v>16.66666666666667</v>
+        <v>5.441128718036592</v>
       </c>
       <c r="AX8" t="n">
-        <v>-460.1998071492829</v>
+        <v>-371.4072080256443</v>
       </c>
       <c r="AY8" t="n">
-        <v>60.33887158132699</v>
+        <v>54.2363335116201</v>
       </c>
     </row>
     <row r="9">
@@ -1810,7 +1806,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Travée 2</t>
+          <t>Appui 1</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1837,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L9" t="n">
         <v>2.2</v>
@@ -1846,7 +1842,7 @@
         <v>0.0008470000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1867,95 +1863,95 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>27.2</v>
+        <v>65</v>
       </c>
       <c r="W9" t="n">
-        <v>10.8</v>
+        <v>23.5</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0.32</v>
       </c>
       <c r="Y9" t="n">
-        <v>37.6</v>
+        <v>44.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.56</v>
+        <v>15.98</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>37.6</v>
+        <v>44.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.56</v>
+        <v>15.98</v>
       </c>
       <c r="AD9" t="n">
-        <v>72.60000000000001</v>
+        <v>83.64000000000001</v>
       </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>52.16</v>
+        <v>60.18000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>37.6</v>
+        <v>44.2</v>
       </c>
       <c r="AH9" t="n">
-        <v>14.56</v>
+        <v>15.98</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.037486437015555</v>
+        <v>10.36152818548807</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.582780723287444</v>
+        <v>3.156336673183349</v>
       </c>
       <c r="AK9" t="n">
-        <v>-252.673718383186</v>
+        <v>-344.8980727156937</v>
       </c>
       <c r="AL9" t="n">
-        <v>-88.72334172422678</v>
+        <v>-93.60592206907602</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-116.3494071926051</v>
+        <v>-157.6661394404652</v>
       </c>
       <c r="AO9" t="n">
-        <v>72.60000000000001</v>
+        <v>83.64000000000001</v>
       </c>
       <c r="AP9" t="n">
-        <v>70.77518339887844</v>
+        <v>60.33887158132699</v>
       </c>
       <c r="AQ9" t="n">
-        <v>87.48329818639058</v>
+        <v>102.7471115931021</v>
       </c>
       <c r="AR9" t="n">
-        <v>9.683370935088158</v>
+        <v>11.91024988180096</v>
       </c>
       <c r="AS9" t="n">
-        <v>-435.3075496457975</v>
+        <v>-435.6377674329036</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-765.5274020194246</v>
+        <v>-1149.024163408343</v>
       </c>
       <c r="AV9" t="n">
-        <v>52.16</v>
+        <v>60.18000000000001</v>
       </c>
       <c r="AW9" t="n">
-        <v>6.896805026441085</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX9" t="n">
-        <v>-358.284688221797</v>
+        <v>-460.1998071492829</v>
       </c>
       <c r="AY9" t="n">
-        <v>70.77518339887844</v>
+        <v>60.33887158132699</v>
       </c>
     </row>
     <row r="10">
@@ -1969,7 +1965,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Appui 2</t>
+          <t>Travée 2</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1996,13 +1992,13 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L10" t="n">
         <v>2.2</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001694</v>
+        <v>0.0008470000000000001</v>
       </c>
       <c r="N10" t="n">
         <v>0.03</v>
@@ -2020,101 +2016,101 @@
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>38</v>
+        <v>27.2</v>
       </c>
       <c r="W10" t="n">
-        <v>17.5</v>
+        <v>10.8</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.5</v>
+        <v>14.56</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>17.5</v>
+        <v>14.56</v>
       </c>
       <c r="AD10" t="n">
-        <v>77.55000000000001</v>
+        <v>72.60000000000001</v>
       </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="n">
-        <v>55.5</v>
+        <v>52.16</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>14.56</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.051823418932441</v>
+        <v>7.037486437015555</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.787023942929411</v>
+        <v>2.582780723287444</v>
       </c>
       <c r="AK10" t="n">
-        <v>-142.1133606630461</v>
+        <v>-252.673718383186</v>
       </c>
       <c r="AL10" t="n">
-        <v>-65.44694241061332</v>
+        <v>-88.72334172422678</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-116.3494071926051</v>
       </c>
       <c r="AO10" t="n">
-        <v>77.55000000000001</v>
+        <v>72.60000000000001</v>
       </c>
       <c r="AP10" t="n">
-        <v>120.8185272336619</v>
+        <v>70.77518339887844</v>
       </c>
       <c r="AQ10" t="n">
-        <v>120.8185272336619</v>
+        <v>87.48329818639058</v>
       </c>
       <c r="AR10" t="n">
-        <v>8.730828620913105</v>
+        <v>9.683370935088158</v>
       </c>
       <c r="AS10" t="n">
-        <v>-299.5025964533648</v>
+        <v>-435.3075496457975</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>-765.5274020194246</v>
       </c>
       <c r="AV10" t="n">
-        <v>55.5</v>
+        <v>52.16</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.447363230193893</v>
+        <v>6.896805026441085</v>
       </c>
       <c r="AX10" t="n">
-        <v>-213.7893829342198</v>
+        <v>-358.284688221797</v>
       </c>
       <c r="AY10" t="n">
-        <v>120.8185272336619</v>
+        <v>70.77518339887844</v>
       </c>
     </row>
     <row r="11">
@@ -2128,7 +2124,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Travée 3</t>
+          <t>Appui 2</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2155,13 +2151,13 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L11" t="n">
         <v>2.2</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0011286</v>
+        <v>0.001694</v>
       </c>
       <c r="N11" t="n">
         <v>0.03</v>
@@ -2188,53 +2184,53 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>38</v>
       </c>
       <c r="W11" t="n">
-        <v>4.3</v>
+        <v>17.5</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.5</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.3</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.5</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.3</v>
+        <v>17.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.175</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="n">
-        <v>7.8</v>
+        <v>55.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.5</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.3</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.5779123811750797</v>
+        <v>6.051823418932441</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.7100052219664973</v>
+        <v>2.787023942929411</v>
       </c>
       <c r="AK11" t="n">
-        <v>-17.78441260582616</v>
+        <v>-142.1133606630461</v>
       </c>
       <c r="AL11" t="n">
-        <v>-21.84943074905475</v>
+        <v>-65.44694241061332</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -2243,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>11.175</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="AP11" t="n">
-        <v>91.71468396335624</v>
+        <v>120.8185272336619</v>
       </c>
       <c r="AQ11" t="n">
-        <v>91.71468396335624</v>
+        <v>120.8185272336619</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.40023371063781</v>
+        <v>8.730828620913105</v>
       </c>
       <c r="AS11" t="n">
-        <v>-57.95844241535718</v>
+        <v>-299.5025964533648</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -2264,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>7.8</v>
+        <v>55.5</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.9810904474554517</v>
+        <v>6.447363230193893</v>
       </c>
       <c r="AX11" t="n">
-        <v>-40.44526938950823</v>
+        <v>-213.7893829342198</v>
       </c>
       <c r="AY11" t="n">
-        <v>91.71468396335624</v>
+        <v>120.8185272336619</v>
       </c>
     </row>
     <row r="12">
@@ -2287,7 +2283,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Appui 3</t>
+          <t>Travée 3</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -2314,16 +2310,16 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L12" t="n">
         <v>2.2</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0008470000000000001</v>
+        <v>0.0011286</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -2347,53 +2343,53 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>25.5</v>
+        <v>11.175</v>
       </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.134054820490851</v>
+        <v>0.5779123811750797</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.70724385639268</v>
+        <v>0.7100052219664973</v>
       </c>
       <c r="AK12" t="n">
-        <v>-73.30342338348426</v>
+        <v>-17.78441260582616</v>
       </c>
       <c r="AL12" t="n">
-        <v>-58.6427387067874</v>
+        <v>-21.84943074905475</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -2402,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>25.5</v>
+        <v>11.175</v>
       </c>
       <c r="AP12" t="n">
-        <v>64.49328836319351</v>
+        <v>91.71468396335624</v>
       </c>
       <c r="AQ12" t="n">
-        <v>64.49328836319351</v>
+        <v>91.71468396335624</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.995073507696654</v>
+        <v>1.40023371063781</v>
       </c>
       <c r="AS12" t="n">
-        <v>-190.810614006614</v>
+        <v>-57.95844241535718</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -2423,16 +2419,16 @@
         <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.854346744831624</v>
+        <v>0.9810904474554517</v>
       </c>
       <c r="AX12" t="n">
-        <v>-134.6008167113396</v>
+        <v>-40.44526938950823</v>
       </c>
       <c r="AY12" t="n">
-        <v>64.49328836319351</v>
+        <v>91.71468396335624</v>
       </c>
     </row>
     <row r="13">
@@ -2446,7 +2442,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Travée 4</t>
+          <t>Appui 3</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -2473,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="L13" t="n">
         <v>2.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1e-05</v>
+        <v>0.0008470000000000001</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -2506,53 +2502,53 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>2.134054820490851</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.70724385639268</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>-73.30342338348426</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>-58.6427387067874</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -2561,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.7804308298384421</v>
+        <v>64.49328836319351</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.7804308298384421</v>
+        <v>64.49328836319351</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>3.995073507696654</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-190.810614006614</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
@@ -2582,16 +2578,16 @@
         <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>2.854346744831624</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>-134.6008167113396</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.7804308298384421</v>
+        <v>64.49328836319351</v>
       </c>
     </row>
     <row r="14">
@@ -2605,7 +2601,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Appui 4</t>
+          <t>Travée 4</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -2638,7 +2634,7 @@
         <v>2.2</v>
       </c>
       <c r="M14" t="n">
-        <v>0.000553</v>
+        <v>1e-05</v>
       </c>
       <c r="N14" t="n">
         <v>0.03</v>
@@ -2656,92 +2652,92 @@
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>27.75</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>24.25</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>72.45</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>27.75</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>24.25</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.15494530550292</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>5.063782547747135</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-308.5373661433064</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-181.5294284579525</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>-241.1663105433086</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>72.45</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>42.78188523161122</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ14" t="n">
-        <v>100.6048416887759</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR14" t="n">
-        <v>11.28818386256965</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>-436.0082808452396</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-1032.392657182334</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -2750,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>42.78188523161122</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="15">
@@ -2764,7 +2760,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Travée 5</t>
+          <t>Appui 4</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2791,13 +2787,13 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L15" t="n">
         <v>2.2</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0005654</v>
+        <v>0.000553</v>
       </c>
       <c r="N15" t="n">
         <v>0.03</v>
@@ -2821,95 +2817,95 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V15" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>35.8</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="n">
-        <v>11.5625</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.9</v>
+        <v>27.75</v>
       </c>
       <c r="AC15" t="n">
-        <v>29.4625</v>
+        <v>24.25</v>
       </c>
       <c r="AD15" t="n">
-        <v>65.67375</v>
+        <v>72.45</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="n">
-        <v>47.3625</v>
+        <v>52</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.9</v>
+        <v>27.75</v>
       </c>
       <c r="AH15" t="n">
-        <v>29.4625</v>
+        <v>24.25</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.006641146752612</v>
+        <v>7.15494530550292</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.093397041678822</v>
+        <v>5.063782547747135</v>
       </c>
       <c r="AK15" t="n">
-        <v>-178.6350037914853</v>
+        <v>-308.5373661433064</v>
       </c>
       <c r="AL15" t="n">
-        <v>-254.8392921778567</v>
+        <v>-181.5294284579525</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-332.6874902815338</v>
+        <v>-241.1663105433086</v>
       </c>
       <c r="AO15" t="n">
-        <v>65.67375</v>
+        <v>72.45</v>
       </c>
       <c r="AP15" t="n">
-        <v>47.66698681222123</v>
+        <v>42.78188523161122</v>
       </c>
       <c r="AQ15" t="n">
-        <v>66.35272377224861</v>
+        <v>100.6048416887759</v>
       </c>
       <c r="AR15" t="n">
-        <v>12.50467895935383</v>
+        <v>11.28818386256965</v>
       </c>
       <c r="AS15" t="n">
-        <v>-438.2678151695405</v>
+        <v>-436.0082808452396</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-1816.750863668995</v>
+        <v>-1032.392657182334</v>
       </c>
       <c r="AV15" t="n">
-        <v>47.3625</v>
+        <v>52</v>
       </c>
       <c r="AW15" t="n">
-        <v>16.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>-463.0198146071669</v>
+        <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>47.66698681222123</v>
+        <v>42.78188523161122</v>
       </c>
     </row>
     <row r="16">
@@ -2923,7 +2919,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Appui 5</t>
+          <t>Travée 5</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2950,28 +2946,28 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L16" t="n">
         <v>2.2</v>
       </c>
       <c r="M16" t="n">
-        <v>0.000282</v>
+        <v>0.0005654</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.000314</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>2.91e-05</v>
@@ -2980,95 +2976,95 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="W16" t="n">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.40000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.375</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
         <v>0.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>18.2</v>
+        <v>18.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>29.575</v>
+        <v>30.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>66.20250000000001</v>
+        <v>68.22</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>47.77500000000001</v>
+        <v>49.2</v>
       </c>
       <c r="AG16" t="n">
-        <v>18.2</v>
+        <v>18.6</v>
       </c>
       <c r="AH16" t="n">
-        <v>29.575</v>
+        <v>30.6</v>
       </c>
       <c r="AI16" t="n">
-        <v>6.357523521887794</v>
+        <v>4.163325437407743</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5.394101478330427</v>
+        <v>6.328653355125054</v>
       </c>
       <c r="AK16" t="n">
-        <v>-392.3547684294014</v>
+        <v>-185.6207301967389</v>
       </c>
       <c r="AL16" t="n">
-        <v>-169.4740330787792</v>
+        <v>-264.6782296357205</v>
       </c>
       <c r="AM16" t="n">
-        <v>-193.4444591099123</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>-345.5320221506979</v>
       </c>
       <c r="AO16" t="n">
-        <v>66.20250000000001</v>
+        <v>68.22</v>
       </c>
       <c r="AP16" t="n">
-        <v>22.00814940711833</v>
+        <v>47.66698681222123</v>
       </c>
       <c r="AQ16" t="n">
-        <v>75.07611918153027</v>
+        <v>66.35272377224861</v>
       </c>
       <c r="AR16" t="n">
-        <v>8.554154818008703</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-407.1281094353321</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-434.9079540553121</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>47.77500000000001</v>
+        <v>49.2</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.227819787361923</v>
+        <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-277.7587313334789</v>
+        <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>75.07611918153027</v>
+        <v>47.66698681222123</v>
       </c>
     </row>
     <row r="17">
@@ -3082,7 +3078,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Travée 6</t>
+          <t>Appui 5</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3109,125 +3105,125 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L17" t="n">
         <v>2.2</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0005654</v>
+        <v>0.000282</v>
       </c>
       <c r="N17" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.000314</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.799999999999999</v>
+        <v>33.59999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.0625</v>
+        <v>10.5</v>
       </c>
       <c r="AA17" t="n">
         <v>0.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>4.899999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.962499999999999</v>
+        <v>27.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>17.82375</v>
+        <v>61.10999999999999</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="n">
-        <v>12.8625</v>
+        <v>44.09999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>4.899999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.962499999999999</v>
+        <v>27.3</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.8979529014601623</v>
+        <v>5.868483250973344</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.459173464872762</v>
+        <v>4.331594653302902</v>
       </c>
       <c r="AK17" t="n">
-        <v>-42.9820818050998</v>
+        <v>-362.1736323963704</v>
       </c>
       <c r="AL17" t="n">
-        <v>-69.8458829332872</v>
+        <v>-114.6846444537546</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>-131.414994125333</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>17.82375</v>
+        <v>61.10999999999999</v>
       </c>
       <c r="AP17" t="n">
-        <v>54.2363335116201</v>
+        <v>22.00814940711833</v>
       </c>
       <c r="AQ17" t="n">
-        <v>54.2363335116201</v>
+        <v>99.02762766943339</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.41118499640679</v>
+        <v>6.919803030692329</v>
       </c>
       <c r="AS17" t="n">
-        <v>-158.6536288827471</v>
+        <v>-260.7612460518836</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>-302.5105738779394</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>12.8625</v>
+        <v>44.09999999999999</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.752057949254693</v>
+        <v>5.107834160825584</v>
       </c>
       <c r="AX17" t="n">
-        <v>-114.4567872246774</v>
+        <v>-187.9752367167598</v>
       </c>
       <c r="AY17" t="n">
-        <v>54.2363335116201</v>
+        <v>99.02762766943339</v>
       </c>
     </row>
     <row r="18">
@@ -3239,7 +3235,11 @@
           <t>File A - 2</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Travée 6</t>
+        </is>
+      </c>
       <c r="D18" t="n">
         <v>25</v>
       </c>
@@ -3264,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="L18" t="n">
         <v>2.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1e-05</v>
+        <v>0.0005654</v>
       </c>
       <c r="N18" t="n">
         <v>0.03</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3306,44 +3306,44 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>20.37</v>
       </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>9.100000000000001</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1.026231887383043</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1.667626816997444</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>-49.12237920582836</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>-79.82386620947111</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -3352,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>20.37</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.7804308298384421</v>
+        <v>54.2363335116201</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.7804308298384421</v>
+        <v>54.2363335116201</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>2.74576807983228</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>-181.3476717695895</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -3373,32 +3373,28 @@
         <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>1.997281467259795</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>-130.8227143080566</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.7804308298384421</v>
+        <v>54.2363335116201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>File A - 3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Travée 1</t>
-        </is>
-      </c>
+          <t>File A - 2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>25</v>
       </c>
@@ -3423,13 +3419,13 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="L19" t="n">
         <v>2.2</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005654</v>
+        <v>1e-05</v>
       </c>
       <c r="N19" t="n">
         <v>0.03</v>
@@ -3447,101 +3443,101 @@
         <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.848369577686408</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.722217632687749</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>-184.2089220218564</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>-77.1226248641141</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>-98.67379012529348</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>54.2363335116201</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ19" t="n">
-        <v>75.11664946432565</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.301066827199184</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>-337.4813794209243</v>
+        <v>0</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>-435.2123870936534</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.127457973155637</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>-277.0659511423386</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>54.2363335116201</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="20">
@@ -3555,7 +3551,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Appui 1</t>
+          <t>Travée 1</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -3582,16 +3578,16 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L20" t="n">
         <v>2.2</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0019</v>
+        <v>0.0005654</v>
       </c>
       <c r="N20" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O20" t="n">
         <v>1</v>
@@ -3606,101 +3602,101 @@
         <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>82.5</v>
+        <v>21</v>
       </c>
       <c r="W20" t="n">
-        <v>30</v>
+        <v>10.1</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.5</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>30</v>
+        <v>10.1</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>82.5</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>30</v>
+        <v>10.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>156.375</v>
+        <v>43.5</v>
       </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="n">
-        <v>112.5</v>
+        <v>31.1</v>
       </c>
       <c r="AG20" t="n">
-        <v>82.5</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>30</v>
+        <v>10.1</v>
       </c>
       <c r="AI20" t="n">
-        <v>12.55074214936456</v>
+        <v>3.848369577686408</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4.563906236132563</v>
+        <v>1.722217632687749</v>
       </c>
       <c r="AK20" t="n">
-        <v>-276.1222663776795</v>
+        <v>-184.2089220218564</v>
       </c>
       <c r="AL20" t="n">
-        <v>-100.4080968646108</v>
+        <v>-77.1226248641141</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>-98.67379012529348</v>
       </c>
       <c r="AO20" t="n">
-        <v>156.375</v>
+        <v>43.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>133.900223728827</v>
+        <v>54.2363335116201</v>
       </c>
       <c r="AQ20" t="n">
-        <v>133.900223728827</v>
+        <v>75.11664946432565</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>5.301066827199184</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>-337.4813794209243</v>
       </c>
       <c r="AT20" t="n">
         <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>-435.2123870936534</v>
       </c>
       <c r="AV20" t="n">
-        <v>112.5</v>
+        <v>31.1</v>
       </c>
       <c r="AW20" t="n">
-        <v>11.56698180671506</v>
+        <v>4.127457973155637</v>
       </c>
       <c r="AX20" t="n">
-        <v>-391.0593123696299</v>
+        <v>-277.0659511423386</v>
       </c>
       <c r="AY20" t="n">
-        <v>133.900223728827</v>
+        <v>54.2363335116201</v>
       </c>
     </row>
     <row r="21">
@@ -3714,7 +3710,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Travée 2</t>
+          <t>Appui 1</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3741,16 +3737,16 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L21" t="n">
         <v>2.2</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0011286</v>
+        <v>0.0019</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -3765,101 +3761,101 @@
         <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>39.4</v>
+        <v>82.5</v>
       </c>
       <c r="W21" t="n">
-        <v>15.8</v>
+        <v>30</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>39.4</v>
+        <v>82.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15.8</v>
+        <v>30</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>39.4</v>
+        <v>82.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>15.8</v>
+        <v>30</v>
       </c>
       <c r="AD21" t="n">
-        <v>76.89000000000001</v>
+        <v>156.375</v>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="n">
-        <v>55.2</v>
+        <v>112.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>39.4</v>
+        <v>82.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>15.8</v>
+        <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.50560359654149</v>
+        <v>12.55074214936456</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2.420796122372225</v>
+        <v>4.563906236132563</v>
       </c>
       <c r="AK21" t="n">
-        <v>-200.2019335282421</v>
+        <v>-276.1222663776795</v>
       </c>
       <c r="AL21" t="n">
-        <v>-69.5003962345952</v>
+        <v>-100.4080968646108</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>-91.59161083278056</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>76.89000000000001</v>
+        <v>156.375</v>
       </c>
       <c r="AP21" t="n">
-        <v>91.71468396335624</v>
+        <v>133.900223728827</v>
       </c>
       <c r="AQ21" t="n">
-        <v>129.61161424486</v>
+        <v>133.900223728827</v>
       </c>
       <c r="AR21" t="n">
-        <v>8.2644669801082</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>-346.6356466381333</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>-463.8218007819769</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>55.2</v>
+        <v>112.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>6.53231256454895</v>
+        <v>11.56698180671506</v>
       </c>
       <c r="AX21" t="n">
-        <v>-287.3829056607494</v>
+        <v>-391.0593123696299</v>
       </c>
       <c r="AY21" t="n">
-        <v>91.71468396335624</v>
+        <v>133.900223728827</v>
       </c>
     </row>
     <row r="22">
@@ -3873,7 +3869,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Appui 2</t>
+          <t>Travée 2</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -3900,13 +3896,13 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L22" t="n">
         <v>2.2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00203</v>
+        <v>0.0011286</v>
       </c>
       <c r="N22" t="n">
         <v>0.03</v>
@@ -3924,101 +3920,101 @@
         <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>67.5</v>
+        <v>39.4</v>
       </c>
       <c r="W22" t="n">
-        <v>28</v>
+        <v>15.8</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>67.5</v>
+        <v>39.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>28</v>
+        <v>15.8</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>67.5</v>
+        <v>39.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>28</v>
+        <v>15.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>133.125</v>
+        <v>76.89000000000001</v>
       </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="n">
-        <v>95.5</v>
+        <v>55.2</v>
       </c>
       <c r="AG22" t="n">
-        <v>67.5</v>
+        <v>39.4</v>
       </c>
       <c r="AH22" t="n">
-        <v>28</v>
+        <v>15.8</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.99115196418764</v>
+        <v>6.50560359654149</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4.14447785181117</v>
+        <v>2.420796122372225</v>
       </c>
       <c r="AK22" t="n">
-        <v>-212.0011925369793</v>
+        <v>-200.2019335282421</v>
       </c>
       <c r="AL22" t="n">
-        <v>-87.94123542274696</v>
+        <v>-69.5003962345952</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>-91.59161083278056</v>
       </c>
       <c r="AO22" t="n">
-        <v>133.125</v>
+        <v>76.89000000000001</v>
       </c>
       <c r="AP22" t="n">
-        <v>142.0581537887314</v>
+        <v>91.71468396335624</v>
       </c>
       <c r="AQ22" t="n">
-        <v>142.0581537887314</v>
+        <v>129.61161424486</v>
       </c>
       <c r="AR22" t="n">
-        <v>13.12913378543516</v>
+        <v>8.2644669801082</v>
       </c>
       <c r="AS22" t="n">
-        <v>-434.8680331196863</v>
+        <v>-346.6356466381333</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>0</v>
+        <v>-463.8218007819769</v>
       </c>
       <c r="AV22" t="n">
-        <v>95.5</v>
+        <v>55.2</v>
       </c>
       <c r="AW22" t="n">
-        <v>9.888713504618933</v>
+        <v>6.53231256454895</v>
       </c>
       <c r="AX22" t="n">
-        <v>-310.9268005260132</v>
+        <v>-287.3829056607494</v>
       </c>
       <c r="AY22" t="n">
-        <v>142.0581537887314</v>
+        <v>91.71468396335624</v>
       </c>
     </row>
     <row r="23">
@@ -4032,7 +4028,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Travée 3</t>
+          <t>Appui 2</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -4059,13 +4055,13 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L23" t="n">
         <v>2.2</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0002816</v>
+        <v>0.00203</v>
       </c>
       <c r="N23" t="n">
         <v>0.03</v>
@@ -4083,101 +4079,101 @@
         <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="W23" t="n">
-        <v>6.2</v>
+        <v>28</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.2</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.2</v>
+        <v>28</v>
       </c>
       <c r="AD23" t="n">
-        <v>9.300000000000001</v>
+        <v>133.125</v>
       </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>6.2</v>
+        <v>95.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.2</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>9.99115196418764</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.473254912276077</v>
+        <v>4.14447785181117</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>-212.0011925369793</v>
       </c>
       <c r="AL23" t="n">
-        <v>-75.95889220176582</v>
+        <v>-87.94123542274696</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>-98.77403921554048</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.300000000000001</v>
+        <v>133.125</v>
       </c>
       <c r="AP23" t="n">
-        <v>23.94501565219981</v>
+        <v>142.0581537887314</v>
       </c>
       <c r="AQ23" t="n">
-        <v>66.94743029628485</v>
+        <v>142.0581537887314</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.640581042628978</v>
+        <v>13.12913378543516</v>
       </c>
       <c r="AS23" t="n">
-        <v>-115.0258444996816</v>
+        <v>-434.8680331196863</v>
       </c>
       <c r="AT23" t="n">
         <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>-150.649236441032</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>6.2</v>
+        <v>95.5</v>
       </c>
       <c r="AW23" t="n">
-        <v>1.409632818128757</v>
+        <v>9.888713504618933</v>
       </c>
       <c r="AX23" t="n">
-        <v>-124.0992260851712</v>
+        <v>-310.9268005260132</v>
       </c>
       <c r="AY23" t="n">
-        <v>23.94501565219981</v>
+        <v>142.0581537887314</v>
       </c>
     </row>
     <row r="24">
@@ -4191,7 +4187,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Appui 3</t>
+          <t>Travée 3</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -4218,16 +4214,16 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L24" t="n">
         <v>2.2</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001106</v>
+        <v>0.0002816</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
@@ -4242,101 +4238,101 @@
         <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>46.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="n">
-        <v>33</v>
+        <v>6.2</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AI24" t="n">
-        <v>3.801192049338274</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2.470774832069876</v>
+        <v>1.473254912276077</v>
       </c>
       <c r="AK24" t="n">
-        <v>-113.0987200971144</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>-73.51416806312436</v>
+        <v>-75.95889220176582</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>-98.77403921554048</v>
       </c>
       <c r="AO24" t="n">
-        <v>46.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AP24" t="n">
-        <v>82.08409117836544</v>
+        <v>23.94501565219981</v>
       </c>
       <c r="AQ24" t="n">
-        <v>82.08409117836544</v>
+        <v>66.94743029628485</v>
       </c>
       <c r="AR24" t="n">
-        <v>6.364878536300568</v>
+        <v>1.640581042628978</v>
       </c>
       <c r="AS24" t="n">
-        <v>-269.4986747711908</v>
+        <v>-115.0258444996816</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>0</v>
+        <v>-150.649236441032</v>
       </c>
       <c r="AV24" t="n">
-        <v>33</v>
+        <v>6.2</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.612343239286047</v>
+        <v>1.409632818128757</v>
       </c>
       <c r="AX24" t="n">
-        <v>-191.0036515816566</v>
+        <v>-124.0992260851712</v>
       </c>
       <c r="AY24" t="n">
-        <v>82.08409117836544</v>
+        <v>23.94501565219981</v>
       </c>
     </row>
     <row r="25">
@@ -4350,7 +4346,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Travée 4</t>
+          <t>Appui 3</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -4377,16 +4373,16 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L25" t="n">
         <v>2.2</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00028</v>
+        <v>0.001106</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
@@ -4401,101 +4397,101 @@
         <v>1</v>
       </c>
       <c r="S25" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W25" t="n">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.8</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.24</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>2.8</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.24</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.64</v>
+        <v>46.5</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="n">
-        <v>8.039999999999999</v>
+        <v>33</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.8</v>
+        <v>20</v>
       </c>
       <c r="AH25" t="n">
-        <v>5.24</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.8639215359247652</v>
+        <v>3.801192049338274</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.246960209574697</v>
+        <v>2.470774832069876</v>
       </c>
       <c r="AK25" t="n">
-        <v>-55.76140318381175</v>
+        <v>-113.0987200971144</v>
       </c>
       <c r="AL25" t="n">
-        <v>-64.41954964611008</v>
+        <v>-73.51416806312436</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>-83.76590360832964</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.64</v>
+        <v>46.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>23.80896442687749</v>
+        <v>82.08409117836544</v>
       </c>
       <c r="AQ25" t="n">
-        <v>66.82726123383971</v>
+        <v>82.08409117836544</v>
       </c>
       <c r="AR25" t="n">
-        <v>2.047708764009219</v>
+        <v>6.364878536300568</v>
       </c>
       <c r="AS25" t="n">
-        <v>-144.4802110230006</v>
+        <v>-269.4986747711908</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>-189.2271803248199</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>8.039999999999999</v>
+        <v>33</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.825017851694622</v>
+        <v>4.612343239286047</v>
       </c>
       <c r="AX25" t="n">
-        <v>-161.8498822691622</v>
+        <v>-191.0036515816566</v>
       </c>
       <c r="AY25" t="n">
-        <v>23.80896442687749</v>
+        <v>82.08409117836544</v>
       </c>
     </row>
     <row r="26">
@@ -4509,7 +4505,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Appui 4</t>
+          <t>Travée 4</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -4536,13 +4532,13 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L26" t="n">
         <v>2.2</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0017852</v>
+        <v>0.00028</v>
       </c>
       <c r="N26" t="n">
         <v>0.03</v>
@@ -4560,101 +4556,101 @@
         <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="W26" t="n">
-        <v>24</v>
+        <v>6.2</v>
       </c>
       <c r="X26" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>59.4</v>
+        <v>2.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>25.92</v>
+        <v>5.24</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>59.4</v>
+        <v>2.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>25.92</v>
+        <v>5.24</v>
       </c>
       <c r="AD26" t="n">
-        <v>119.07</v>
+        <v>11.64</v>
       </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="n">
-        <v>85.31999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>59.4</v>
+        <v>2.8</v>
       </c>
       <c r="AH26" t="n">
-        <v>25.92</v>
+        <v>5.24</v>
       </c>
       <c r="AI26" t="n">
-        <v>9.26907172333916</v>
+        <v>0.8639215359247652</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4.044685842911635</v>
+        <v>1.246960209574697</v>
       </c>
       <c r="AK26" t="n">
-        <v>-211.1174491164255</v>
+        <v>-55.76140318381175</v>
       </c>
       <c r="AL26" t="n">
-        <v>-92.12397779625839</v>
+        <v>-64.41954964611008</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>-83.76590360832964</v>
       </c>
       <c r="AO26" t="n">
-        <v>119.07</v>
+        <v>11.64</v>
       </c>
       <c r="AP26" t="n">
-        <v>126.6413043424206</v>
+        <v>23.80896442687749</v>
       </c>
       <c r="AQ26" t="n">
-        <v>126.6413043424206</v>
+        <v>66.82726123383971</v>
       </c>
       <c r="AR26" t="n">
-        <v>13.21178308365106</v>
+        <v>2.047708764009219</v>
       </c>
       <c r="AS26" t="n">
-        <v>-435.236191716011</v>
+        <v>-144.4802110230006</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>0</v>
+        <v>-189.2271803248199</v>
       </c>
       <c r="AV26" t="n">
-        <v>85.31999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AW26" t="n">
-        <v>9.33679992475958</v>
+        <v>1.825017851694622</v>
       </c>
       <c r="AX26" t="n">
-        <v>-313.6553972124249</v>
+        <v>-161.8498822691622</v>
       </c>
       <c r="AY26" t="n">
-        <v>126.6413043424206</v>
+        <v>23.80896442687749</v>
       </c>
     </row>
     <row r="27">
@@ -4668,7 +4664,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Travée 5</t>
+          <t>Appui 4</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -4695,13 +4691,13 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L27" t="n">
         <v>2.2</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0005654</v>
+        <v>0.0017852</v>
       </c>
       <c r="N27" t="n">
         <v>0.03</v>
@@ -4719,101 +4715,101 @@
         <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="W27" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="Y27" t="n">
-        <v>33.8</v>
+        <v>59.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>13.54</v>
+        <v>25.92</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>33.8</v>
+        <v>59.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>13.54</v>
+        <v>25.92</v>
       </c>
       <c r="AD27" t="n">
-        <v>65.94</v>
+        <v>119.07</v>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="n">
-        <v>47.34</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>33.8</v>
+        <v>59.4</v>
       </c>
       <c r="AH27" t="n">
-        <v>13.54</v>
+        <v>25.92</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.565612891633421</v>
+        <v>9.26907172333916</v>
       </c>
       <c r="AJ27" t="n">
-        <v>2.484029477478736</v>
+        <v>4.044685842911635</v>
       </c>
       <c r="AK27" t="n">
-        <v>-337.3107892822459</v>
+        <v>-211.1174491164255</v>
       </c>
       <c r="AL27" t="n">
-        <v>-92.39359445593945</v>
+        <v>-92.12397779625839</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>-120.9294511383131</v>
+        <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>65.94</v>
+        <v>119.07</v>
       </c>
       <c r="AP27" t="n">
-        <v>47.66698681222123</v>
+        <v>126.6413043424206</v>
       </c>
       <c r="AQ27" t="n">
-        <v>109.8759629544403</v>
+        <v>126.6413043424206</v>
       </c>
       <c r="AR27" t="n">
-        <v>8.607578081189006</v>
+        <v>13.21178308365106</v>
       </c>
       <c r="AS27" t="n">
-        <v>-435.0299177094656</v>
+        <v>-435.236191716011</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
       </c>
       <c r="AU27" t="n">
-        <v>-664.4946332446407</v>
+        <v>0</v>
       </c>
       <c r="AV27" t="n">
-        <v>47.34</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="AW27" t="n">
-        <v>16.66666666666667</v>
+        <v>9.33679992475958</v>
       </c>
       <c r="AX27" t="n">
-        <v>-462.806440671201</v>
+        <v>-313.6553972124249</v>
       </c>
       <c r="AY27" t="n">
-        <v>47.66698681222123</v>
+        <v>126.6413043424206</v>
       </c>
     </row>
     <row r="28">
@@ -4827,7 +4823,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Appui 5</t>
+          <t>Travée 5</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -4854,16 +4850,16 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L28" t="n">
         <v>2.2</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0018981</v>
+        <v>0.0005654</v>
       </c>
       <c r="N28" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
@@ -4878,101 +4874,101 @@
         <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V28" t="n">
-        <v>80.5</v>
+        <v>36</v>
       </c>
       <c r="W28" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.5</v>
+        <v>33.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>28</v>
+        <v>13.54</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>80.5</v>
+        <v>33.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>28</v>
+        <v>13.54</v>
       </c>
       <c r="AD28" t="n">
-        <v>150.675</v>
+        <v>65.94</v>
       </c>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="n">
-        <v>108.5</v>
+        <v>47.34</v>
       </c>
       <c r="AG28" t="n">
-        <v>80.5</v>
+        <v>33.8</v>
       </c>
       <c r="AH28" t="n">
-        <v>28</v>
+        <v>13.54</v>
       </c>
       <c r="AI28" t="n">
-        <v>12.25164363418233</v>
+        <v>7.565612891633421</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4.26144126406342</v>
+        <v>2.484029477478736</v>
       </c>
       <c r="AK28" t="n">
-        <v>-269.6871422093244</v>
+        <v>-337.3107892822459</v>
       </c>
       <c r="AL28" t="n">
-        <v>-93.80422337715629</v>
+        <v>-92.39359445593945</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>-120.9294511383131</v>
       </c>
       <c r="AO28" t="n">
-        <v>150.675</v>
+        <v>65.94</v>
       </c>
       <c r="AP28" t="n">
-        <v>133.780443893089</v>
+        <v>47.66698681222123</v>
       </c>
       <c r="AQ28" t="n">
-        <v>133.780443893089</v>
+        <v>109.8759629544403</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>8.607578081189006</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>-435.0299177094656</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>0</v>
+        <v>-664.4946332446407</v>
       </c>
       <c r="AV28" t="n">
-        <v>108.5</v>
+        <v>47.34</v>
       </c>
       <c r="AW28" t="n">
-        <v>11.23546378903319</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX28" t="n">
-        <v>-377.2795345203546</v>
+        <v>-462.806440671201</v>
       </c>
       <c r="AY28" t="n">
-        <v>133.780443893089</v>
+        <v>47.66698681222123</v>
       </c>
     </row>
     <row r="29">
@@ -4986,7 +4982,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Travée 6</t>
+          <t>Appui 5</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -5013,16 +5009,16 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L29" t="n">
         <v>2.2</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0005657</v>
+        <v>0.0018981</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -5037,101 +5033,101 @@
         <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>21.3</v>
+        <v>80.5</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>21.3</v>
+        <v>80.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>21.3</v>
+        <v>80.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AD29" t="n">
-        <v>43.755</v>
+        <v>150.675</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="n">
-        <v>31.3</v>
+        <v>108.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>21.3</v>
+        <v>80.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.902399114938167</v>
+        <v>12.25164363418233</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.704836032445617</v>
+        <v>4.26144126406342</v>
       </c>
       <c r="AK29" t="n">
-        <v>-186.743297112983</v>
+        <v>-269.6871422093244</v>
       </c>
       <c r="AL29" t="n">
-        <v>-76.32441422047592</v>
+        <v>-93.80422337715629</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>-97.65296979994304</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>43.755</v>
+        <v>150.675</v>
       </c>
       <c r="AP29" t="n">
-        <v>54.26477237412467</v>
+        <v>133.780443893089</v>
       </c>
       <c r="AQ29" t="n">
-        <v>75.14248964134558</v>
+        <v>133.780443893089</v>
       </c>
       <c r="AR29" t="n">
-        <v>5.329308019577598</v>
+        <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>-339.3119053107616</v>
+        <v>0</v>
       </c>
       <c r="AT29" t="n">
         <v>0</v>
       </c>
       <c r="AU29" t="n">
-        <v>-437.5781489699328</v>
+        <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>31.3</v>
+        <v>108.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.151831908164578</v>
+        <v>11.23546378903319</v>
       </c>
       <c r="AX29" t="n">
-        <v>-278.7076440749302</v>
+        <v>-377.2795345203546</v>
       </c>
       <c r="AY29" t="n">
-        <v>54.26477237412467</v>
+        <v>133.780443893089</v>
       </c>
     </row>
     <row r="30">
@@ -5143,7 +5139,11 @@
           <t>File A - 3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Travée 6</t>
+        </is>
+      </c>
       <c r="D30" t="n">
         <v>25</v>
       </c>
@@ -5168,13 +5168,13 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="L30" t="n">
         <v>2.2</v>
       </c>
       <c r="M30" t="n">
-        <v>1e-05</v>
+        <v>0.0005657</v>
       </c>
       <c r="N30" t="n">
         <v>0.03</v>
@@ -5192,117 +5192,113 @@
         <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>43.755</v>
       </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>3.902399114938167</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1.704836032445617</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>-186.743297112983</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>-76.32441422047592</v>
       </c>
       <c r="AM30" t="n">
         <v>0</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>-97.65296979994304</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>43.755</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.7804308298384421</v>
+        <v>54.26477237412467</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.7804308298384421</v>
+        <v>75.14248964134558</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>5.329308019577598</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>-339.3119053107616</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
       </c>
       <c r="AU30" t="n">
-        <v>0</v>
+        <v>-437.5781489699328</v>
       </c>
       <c r="AV30" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="AW30" t="n">
-        <v>0</v>
+        <v>4.151831908164578</v>
       </c>
       <c r="AX30" t="n">
-        <v>0</v>
+        <v>-278.7076440749302</v>
       </c>
       <c r="AY30" t="n">
-        <v>0.7804308298384421</v>
+        <v>54.26477237412467</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>File A - 4</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Travée 1</t>
-        </is>
-      </c>
+          <t>File A - 3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>25</v>
       </c>
@@ -5327,13 +5323,13 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="L31" t="n">
         <v>2.2</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0005657</v>
+        <v>1e-05</v>
       </c>
       <c r="N31" t="n">
         <v>0.03</v>
@@ -5351,101 +5347,101 @@
         <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>3.664224521068705</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1.704836032445617</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>-175.34581888543</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
-        <v>-76.32441422047592</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>-97.65296979994304</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>54.26477237412467</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ31" t="n">
-        <v>75.14248964134558</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR31" t="n">
-        <v>5.128081460826732</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>-325.6700968318999</v>
+        <v>0</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>-419.9703943864856</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.987045463348494</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>-267.109065520772</v>
+        <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>54.26477237412467</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="32">
@@ -5459,7 +5455,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Appui 1</t>
+          <t>Travée 1</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -5486,16 +5482,16 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L32" t="n">
         <v>2.2</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0019</v>
+        <v>0.0005657</v>
       </c>
       <c r="N32" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O32" t="n">
         <v>1</v>
@@ -5516,95 +5512,95 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>88.5</v>
+        <v>20</v>
       </c>
       <c r="W32" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>88.5</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>88.5</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AD32" t="n">
-        <v>167.475</v>
+        <v>42</v>
       </c>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="n">
-        <v>120.5</v>
+        <v>30</v>
       </c>
       <c r="AG32" t="n">
-        <v>88.5</v>
+        <v>20</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AI32" t="n">
-        <v>13.46352339659107</v>
+        <v>3.664224521068705</v>
       </c>
       <c r="AJ32" t="n">
-        <v>4.528475035774111</v>
+        <v>1.704836032445617</v>
       </c>
       <c r="AK32" t="n">
-        <v>-296.2038857506017</v>
+        <v>-175.34581888543</v>
       </c>
       <c r="AL32" t="n">
-        <v>-94.61611146573978</v>
+        <v>-76.32441422047592</v>
       </c>
       <c r="AM32" t="n">
         <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>-151.9822441369318</v>
+        <v>-97.65296979994304</v>
       </c>
       <c r="AO32" t="n">
-        <v>167.475</v>
+        <v>42</v>
       </c>
       <c r="AP32" t="n">
-        <v>133.900223728827</v>
+        <v>54.26477237412467</v>
       </c>
       <c r="AQ32" t="n">
-        <v>174.3477017488384</v>
+        <v>75.14248964134558</v>
       </c>
       <c r="AR32" t="n">
-        <v>16.4280035580469</v>
+        <v>5.128081460826732</v>
       </c>
       <c r="AS32" t="n">
-        <v>-436.8059058780337</v>
+        <v>-325.6700968318999</v>
       </c>
       <c r="AT32" t="n">
         <v>0</v>
       </c>
       <c r="AU32" t="n">
-        <v>-1611.833748642285</v>
+        <v>-419.9703943864856</v>
       </c>
       <c r="AV32" t="n">
-        <v>120.5</v>
+        <v>30</v>
       </c>
       <c r="AW32" t="n">
-        <v>12.21549230458025</v>
+        <v>3.987045463348494</v>
       </c>
       <c r="AX32" t="n">
-        <v>-419.4044005738505</v>
+        <v>-267.109065520772</v>
       </c>
       <c r="AY32" t="n">
-        <v>133.900223728827</v>
+        <v>54.26477237412467</v>
       </c>
     </row>
     <row r="33">
@@ -5618,7 +5614,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Travée 2</t>
+          <t>Appui 1</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -5645,16 +5641,16 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L33" t="n">
         <v>2.2</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0008470000000000001</v>
+        <v>0.0019</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O33" t="n">
         <v>1</v>
@@ -5675,95 +5671,95 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
-        <v>43</v>
+        <v>88.5</v>
       </c>
       <c r="W33" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>47.65</v>
+        <v>88.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>18.83</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>47.65</v>
+        <v>88.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>18.83</v>
+        <v>32</v>
       </c>
       <c r="AD33" t="n">
-        <v>92.57249999999999</v>
+        <v>167.475</v>
       </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="n">
-        <v>66.47999999999999</v>
+        <v>120.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>47.65</v>
+        <v>88.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>18.83</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
-        <v>8.918516721377406</v>
+        <v>13.46352339659107</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3.057998619628804</v>
+        <v>4.528475035774111</v>
       </c>
       <c r="AK33" t="n">
-        <v>-320.2101776850748</v>
+        <v>-296.2038857506017</v>
       </c>
       <c r="AL33" t="n">
-        <v>-96.66323130314611</v>
+        <v>-94.61611146573978</v>
       </c>
       <c r="AM33" t="n">
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>-127.038217372056</v>
+        <v>-151.9822441369318</v>
       </c>
       <c r="AO33" t="n">
-        <v>92.57249999999999</v>
+        <v>167.475</v>
       </c>
       <c r="AP33" t="n">
-        <v>70.77518339887844</v>
+        <v>133.900223728827</v>
       </c>
       <c r="AQ33" t="n">
-        <v>130.4778122285267</v>
+        <v>174.3477017488384</v>
       </c>
       <c r="AR33" t="n">
-        <v>11.04441460894119</v>
+        <v>16.4280035580469</v>
       </c>
       <c r="AS33" t="n">
-        <v>-435.489988107619</v>
+        <v>-436.8059058780337</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>-834.40887452403</v>
+        <v>-1611.833748642285</v>
       </c>
       <c r="AV33" t="n">
-        <v>66.47999999999999</v>
+        <v>120.5</v>
       </c>
       <c r="AW33" t="n">
-        <v>14.82125202588039</v>
+        <v>12.21549230458025</v>
       </c>
       <c r="AX33" t="n">
-        <v>-441.4052367549027</v>
+        <v>-419.4044005738505</v>
       </c>
       <c r="AY33" t="n">
-        <v>70.77518339887844</v>
+        <v>133.900223728827</v>
       </c>
     </row>
     <row r="34">
@@ -5777,7 +5773,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Appui 2</t>
+          <t>Travée 2</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -5804,16 +5800,16 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L34" t="n">
         <v>2.2</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00156</v>
+        <v>0.0008470000000000001</v>
       </c>
       <c r="N34" t="n">
-        <v>0.053</v>
+        <v>0.03</v>
       </c>
       <c r="O34" t="n">
         <v>1</v>
@@ -5834,95 +5830,95 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V34" t="n">
-        <v>77.5</v>
+        <v>43</v>
       </c>
       <c r="W34" t="n">
-        <v>30.5</v>
+        <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.2</v>
+        <v>47.65</v>
       </c>
       <c r="Z34" t="n">
-        <v>26.84</v>
+        <v>18.83</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>68.2</v>
+        <v>47.65</v>
       </c>
       <c r="AC34" t="n">
-        <v>26.84</v>
+        <v>18.83</v>
       </c>
       <c r="AD34" t="n">
-        <v>132.33</v>
+        <v>92.57249999999999</v>
       </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="n">
-        <v>95.04000000000001</v>
+        <v>66.47999999999999</v>
       </c>
       <c r="AG34" t="n">
-        <v>68.2</v>
+        <v>47.65</v>
       </c>
       <c r="AH34" t="n">
-        <v>26.84</v>
+        <v>18.83</v>
       </c>
       <c r="AI34" t="n">
-        <v>14.18631716523623</v>
+        <v>8.918516721377406</v>
       </c>
       <c r="AJ34" t="n">
-        <v>5.110392028197437</v>
+        <v>3.057998619628804</v>
       </c>
       <c r="AK34" t="n">
-        <v>-320.9116985066808</v>
+        <v>-320.2101776850748</v>
       </c>
       <c r="AL34" t="n">
-        <v>-108.6473749889363</v>
+        <v>-96.66323130314611</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
       </c>
       <c r="AN34" t="n">
-        <v>-175.4798145413385</v>
+        <v>-127.038217372056</v>
       </c>
       <c r="AO34" t="n">
-        <v>132.33</v>
+        <v>92.57249999999999</v>
       </c>
       <c r="AP34" t="n">
-        <v>95.56178411517728</v>
+        <v>70.77518339887844</v>
       </c>
       <c r="AQ34" t="n">
-        <v>131.3017715416934</v>
+        <v>130.4778122285267</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>11.04441460894119</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>-435.489988107619</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>0</v>
+        <v>-834.40887452403</v>
       </c>
       <c r="AV34" t="n">
-        <v>95.04000000000001</v>
+        <v>66.47999999999999</v>
       </c>
       <c r="AW34" t="n">
-        <v>16.66666666666667</v>
+        <v>14.82125202588039</v>
       </c>
       <c r="AX34" t="n">
-        <v>-444.4339739239925</v>
+        <v>-441.4052367549027</v>
       </c>
       <c r="AY34" t="n">
-        <v>95.56178411517728</v>
+        <v>70.77518339887844</v>
       </c>
     </row>
     <row r="35">
@@ -5936,7 +5932,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Travée 3</t>
+          <t>Appui 2</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -5963,16 +5959,16 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L35" t="n">
         <v>2.2</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00028</v>
+        <v>0.00156</v>
       </c>
       <c r="N35" t="n">
-        <v>0.03</v>
+        <v>0.053</v>
       </c>
       <c r="O35" t="n">
         <v>1</v>
@@ -5993,95 +5989,95 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="W35" t="n">
-        <v>6.4</v>
+        <v>30.5</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.649999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.23</v>
+        <v>26.84</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>4.649999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.23</v>
+        <v>26.84</v>
       </c>
       <c r="AD35" t="n">
-        <v>18.6225</v>
+        <v>132.33</v>
       </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="n">
-        <v>12.88</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="AG35" t="n">
-        <v>4.649999999999999</v>
+        <v>68.2</v>
       </c>
       <c r="AH35" t="n">
-        <v>8.23</v>
+        <v>26.84</v>
       </c>
       <c r="AI35" t="n">
-        <v>1.434726836446489</v>
+        <v>14.18631716523623</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.798393316070585</v>
+        <v>5.110392028197437</v>
       </c>
       <c r="AK35" t="n">
-        <v>-92.60375885883025</v>
+        <v>-320.9116985066808</v>
       </c>
       <c r="AL35" t="n">
-        <v>-84.89475978057037</v>
+        <v>-108.6473749889363</v>
       </c>
       <c r="AM35" t="n">
         <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>-110.5659812851409</v>
+        <v>-175.4798145413385</v>
       </c>
       <c r="AO35" t="n">
-        <v>18.6225</v>
+        <v>132.33</v>
       </c>
       <c r="AP35" t="n">
-        <v>23.80896442687749</v>
+        <v>95.56178411517728</v>
       </c>
       <c r="AQ35" t="n">
-        <v>88.72652104289106</v>
+        <v>131.3017715416934</v>
       </c>
       <c r="AR35" t="n">
-        <v>2.964962881442812</v>
+        <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>-194.1811338553977</v>
+        <v>0</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>-254.89414886677</v>
+        <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>12.88</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="AW35" t="n">
-        <v>2.889297985722961</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX35" t="n">
-        <v>-259.3923949478748</v>
+        <v>-444.4339739239925</v>
       </c>
       <c r="AY35" t="n">
-        <v>23.80896442687749</v>
+        <v>95.56178411517728</v>
       </c>
     </row>
     <row r="36">
@@ -6095,7 +6091,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Appui 3</t>
+          <t>Travée 3</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -6122,16 +6118,16 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L36" t="n">
         <v>2.2</v>
       </c>
       <c r="M36" t="n">
-        <v>0.001953</v>
+        <v>0.00028</v>
       </c>
       <c r="N36" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O36" t="n">
         <v>1</v>
@@ -6146,101 +6142,101 @@
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V36" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>13</v>
+        <v>6.4</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>25</v>
+        <v>4.649999999999999</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>8.23</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>25</v>
+        <v>4.649999999999999</v>
       </c>
       <c r="AC36" t="n">
-        <v>13</v>
+        <v>8.23</v>
       </c>
       <c r="AD36" t="n">
-        <v>53.25</v>
+        <v>18.6225</v>
       </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="n">
-        <v>38</v>
+        <v>12.88</v>
       </c>
       <c r="AG36" t="n">
-        <v>25</v>
+        <v>4.649999999999999</v>
       </c>
       <c r="AH36" t="n">
-        <v>13</v>
+        <v>8.23</v>
       </c>
       <c r="AI36" t="n">
-        <v>3.759745226319343</v>
+        <v>1.434726836446489</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.955067517686059</v>
+        <v>1.798393316070585</v>
       </c>
       <c r="AK36" t="n">
-        <v>-81.49240353287199</v>
+        <v>-92.60375885883025</v>
       </c>
       <c r="AL36" t="n">
-        <v>-42.37604983709344</v>
+        <v>-84.89475978057037</v>
       </c>
       <c r="AM36" t="n">
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>-110.5659812851409</v>
       </c>
       <c r="AO36" t="n">
-        <v>53.25</v>
+        <v>18.6225</v>
       </c>
       <c r="AP36" t="n">
-        <v>137.2350868906134</v>
+        <v>23.80896442687749</v>
       </c>
       <c r="AQ36" t="n">
-        <v>137.2350868906134</v>
+        <v>88.72652104289106</v>
       </c>
       <c r="AR36" t="n">
-        <v>5.912373354878178</v>
+        <v>2.964962881442812</v>
       </c>
       <c r="AS36" t="n">
-        <v>-178.953487485356</v>
+        <v>-194.1811338553977</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>0</v>
+        <v>-254.89414886677</v>
       </c>
       <c r="AV36" t="n">
-        <v>38</v>
+        <v>12.88</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.295264875873436</v>
+        <v>2.889297985722961</v>
       </c>
       <c r="AX36" t="n">
-        <v>-127.516678955213</v>
+        <v>-259.3923949478748</v>
       </c>
       <c r="AY36" t="n">
-        <v>137.2350868906134</v>
+        <v>23.80896442687749</v>
       </c>
     </row>
     <row r="37">
@@ -6254,7 +6250,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Travée 4</t>
+          <t>Appui 3</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -6281,16 +6277,16 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L37" t="n">
         <v>2.2</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00028</v>
+        <v>0.001953</v>
       </c>
       <c r="N37" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -6305,101 +6301,101 @@
         <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="W37" t="n">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.774999999999999</v>
+        <v>25</v>
       </c>
       <c r="Z37" t="n">
-        <v>4.5375</v>
+        <v>13</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>-1.774999999999999</v>
+        <v>25</v>
       </c>
       <c r="AC37" t="n">
-        <v>4.5375</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>4.41</v>
+        <v>53.25</v>
       </c>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="n">
-        <v>2.7625</v>
+        <v>38</v>
       </c>
       <c r="AG37" t="n">
-        <v>-1.774999999999999</v>
+        <v>25</v>
       </c>
       <c r="AH37" t="n">
-        <v>4.5375</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
-        <v>9.699286874802125</v>
+        <v>3.759745226319343</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.9915218795390652</v>
+        <v>1.955067517686059</v>
       </c>
       <c r="AK37" t="n">
-        <v>-230.5194805194806</v>
+        <v>-81.49240353287199</v>
       </c>
       <c r="AL37" t="n">
-        <v>-46.80557350723782</v>
+        <v>-42.37604983709344</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>-60.95905546149166</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>4.41</v>
+        <v>53.25</v>
       </c>
       <c r="AP37" t="n">
-        <v>23.80896442687749</v>
+        <v>137.2350868906134</v>
       </c>
       <c r="AQ37" t="n">
-        <v>88.72652104289106</v>
+        <v>137.2350868906134</v>
       </c>
       <c r="AR37" t="n">
-        <v>0.7184801232999065</v>
+        <v>5.912373354878178</v>
       </c>
       <c r="AS37" t="n">
-        <v>-45.94993742661462</v>
+        <v>-178.953487485356</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
       </c>
       <c r="AU37" t="n">
-        <v>-60.29628415274358</v>
+        <v>0</v>
       </c>
       <c r="AV37" t="n">
-        <v>2.7625</v>
+        <v>38</v>
       </c>
       <c r="AW37" t="n">
-        <v>0.6348932589432051</v>
+        <v>4.295264875873436</v>
       </c>
       <c r="AX37" t="n">
-        <v>-55.58617697333279</v>
+        <v>-127.516678955213</v>
       </c>
       <c r="AY37" t="n">
-        <v>23.80896442687749</v>
+        <v>137.2350868906134</v>
       </c>
     </row>
     <row r="38">
@@ -6413,7 +6409,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Appui 4</t>
+          <t>Travée 4</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -6440,13 +6436,13 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L38" t="n">
         <v>2.2</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00263</v>
+        <v>0.00028</v>
       </c>
       <c r="N38" t="n">
         <v>0.03</v>
@@ -6464,101 +6460,101 @@
         <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V38" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="W38" t="n">
-        <v>27.5</v>
+        <v>6.6</v>
       </c>
       <c r="X38" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.55</v>
+        <v>-1.774999999999999</v>
       </c>
       <c r="Z38" t="n">
-        <v>31.625</v>
+        <v>4.5375</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>66.41249999999999</v>
+        <v>-1.774999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>53.7625</v>
+        <v>4.5375</v>
       </c>
       <c r="AD38" t="n">
-        <v>166.98</v>
+        <v>4.41</v>
       </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="n">
-        <v>120.175</v>
+        <v>2.7625</v>
       </c>
       <c r="AG38" t="n">
-        <v>66.41249999999999</v>
+        <v>-1.774999999999999</v>
       </c>
       <c r="AH38" t="n">
-        <v>53.7625</v>
+        <v>4.5375</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.880703321401503</v>
+        <v>9.699286874802125</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7.189140783991696</v>
+        <v>0.9915218795390652</v>
       </c>
       <c r="AK38" t="n">
-        <v>-162.5757578035983</v>
+        <v>-230.5194805194806</v>
       </c>
       <c r="AL38" t="n">
-        <v>-131.608946793389</v>
+        <v>-46.80557350723782</v>
       </c>
       <c r="AM38" t="n">
         <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>-60.95905546149166</v>
       </c>
       <c r="AO38" t="n">
-        <v>166.98</v>
+        <v>4.41</v>
       </c>
       <c r="AP38" t="n">
-        <v>178.5298517827331</v>
+        <v>23.80896442687749</v>
       </c>
       <c r="AQ38" t="n">
-        <v>178.5298517827331</v>
+        <v>88.72652104289106</v>
       </c>
       <c r="AR38" t="n">
-        <v>14.30526671843567</v>
+        <v>0.7184801232999065</v>
       </c>
       <c r="AS38" t="n">
-        <v>-429.4780696535611</v>
+        <v>-45.94993742661462</v>
       </c>
       <c r="AT38" t="n">
         <v>0</v>
       </c>
       <c r="AU38" t="n">
-        <v>0</v>
+        <v>-60.29628415274358</v>
       </c>
       <c r="AV38" t="n">
-        <v>120.175</v>
+        <v>2.7625</v>
       </c>
       <c r="AW38" t="n">
-        <v>11.12821357069855</v>
+        <v>0.6348932589432051</v>
       </c>
       <c r="AX38" t="n">
-        <v>-306.7758997505456</v>
+        <v>-55.58617697333279</v>
       </c>
       <c r="AY38" t="n">
-        <v>178.5298517827331</v>
+        <v>23.80896442687749</v>
       </c>
     </row>
     <row r="39">
@@ -6572,7 +6568,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Travée 5</t>
+          <t>Appui 4</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -6599,13 +6595,13 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L39" t="n">
         <v>2.2</v>
       </c>
       <c r="M39" t="n">
-        <v>0.00028</v>
+        <v>0.00263</v>
       </c>
       <c r="N39" t="n">
         <v>0.03</v>
@@ -6623,101 +6619,101 @@
         <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>38.5</v>
+        <v>77</v>
       </c>
       <c r="W39" t="n">
-        <v>15.4</v>
+        <v>27.5</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Y39" t="n">
-        <v>23.1</v>
+        <v>88.55</v>
       </c>
       <c r="Z39" t="n">
-        <v>10.025</v>
+        <v>31.625</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>11.55</v>
+        <v>66.41249999999999</v>
       </c>
       <c r="AC39" t="n">
-        <v>21.575</v>
+        <v>53.7625</v>
       </c>
       <c r="AD39" t="n">
-        <v>46.2225</v>
+        <v>166.98</v>
       </c>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="n">
-        <v>33.125</v>
+        <v>120.175</v>
       </c>
       <c r="AG39" t="n">
-        <v>11.55</v>
+        <v>66.41249999999999</v>
       </c>
       <c r="AH39" t="n">
-        <v>21.575</v>
+        <v>53.7625</v>
       </c>
       <c r="AI39" t="n">
-        <v>3.56367633568966</v>
+        <v>8.880703321401503</v>
       </c>
       <c r="AJ39" t="n">
-        <v>4.714500096503395</v>
+        <v>7.189140783991696</v>
       </c>
       <c r="AK39" t="n">
-        <v>-230.0157881332235</v>
+        <v>-162.5757578035983</v>
       </c>
       <c r="AL39" t="n">
-        <v>-222.5521801052012</v>
+        <v>-131.608946793389</v>
       </c>
       <c r="AM39" t="n">
         <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>-289.8494588368063</v>
+        <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>46.2225</v>
+        <v>166.98</v>
       </c>
       <c r="AP39" t="n">
-        <v>23.80896442687749</v>
+        <v>178.5298517827331</v>
       </c>
       <c r="AQ39" t="n">
-        <v>88.72652104289106</v>
+        <v>178.5298517827331</v>
       </c>
       <c r="AR39" t="n">
-        <v>7.247501449172267</v>
+        <v>14.30526671843567</v>
       </c>
       <c r="AS39" t="n">
-        <v>-435.131375703652</v>
+        <v>-429.4780696535611</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
       </c>
       <c r="AU39" t="n">
-        <v>-696.1390778591737</v>
+        <v>0</v>
       </c>
       <c r="AV39" t="n">
-        <v>33.125</v>
+        <v>120.175</v>
       </c>
       <c r="AW39" t="n">
-        <v>0</v>
+        <v>11.12821357069855</v>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>-306.7758997505456</v>
       </c>
       <c r="AY39" t="n">
-        <v>23.80896442687749</v>
+        <v>178.5298517827331</v>
       </c>
     </row>
     <row r="40">
@@ -6731,7 +6727,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Appui 5</t>
+          <t>Travée 5</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -6758,28 +6754,28 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L40" t="n">
         <v>2.2</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.00028</v>
       </c>
       <c r="N40" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O40" t="n">
         <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>0.000314</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>2.91e-05</v>
@@ -6788,95 +6784,95 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V40" t="n">
-        <v>77</v>
+        <v>38.5</v>
       </c>
       <c r="W40" t="n">
-        <v>26.5</v>
+        <v>15.4</v>
       </c>
       <c r="X40" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>96.25</v>
+        <v>23.1</v>
       </c>
       <c r="Z40" t="n">
-        <v>33.125</v>
+        <v>10.025</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="AC40" t="n">
-        <v>129.375</v>
+        <v>21.575</v>
       </c>
       <c r="AD40" t="n">
-        <v>179.625</v>
+        <v>46.2225</v>
       </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>129.375</v>
+        <v>33.125</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="AH40" t="n">
-        <v>129.375</v>
+        <v>21.575</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>3.56367633568966</v>
       </c>
       <c r="AJ40" t="n">
-        <v>16.51809352884182</v>
+        <v>4.714500096503395</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>-230.0157881332235</v>
       </c>
       <c r="AL40" t="n">
-        <v>-337.1683115731751</v>
+        <v>-222.5521801052012</v>
       </c>
       <c r="AM40" t="n">
-        <v>-389.183100882444</v>
+        <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>-289.8494588368063</v>
       </c>
       <c r="AO40" t="n">
-        <v>179.625</v>
+        <v>46.2225</v>
       </c>
       <c r="AP40" t="n">
-        <v>0</v>
+        <v>23.80896442687749</v>
       </c>
       <c r="AQ40" t="n">
-        <v>150.2365806625913</v>
+        <v>88.72652104289106</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>7.247501449172267</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>-435.131375703652</v>
       </c>
       <c r="AT40" t="n">
         <v>0</v>
       </c>
       <c r="AU40" t="n">
-        <v>0</v>
+        <v>-696.1390778591737</v>
       </c>
       <c r="AV40" t="n">
-        <v>129.375</v>
+        <v>33.125</v>
       </c>
       <c r="AW40" t="n">
-        <v>11.20001191486468</v>
+        <v>0</v>
       </c>
       <c r="AX40" t="n">
-        <v>-342.7403375781192</v>
+        <v>0</v>
       </c>
       <c r="AY40" t="n">
-        <v>150.2365806625913</v>
+        <v>23.80896442687749</v>
       </c>
     </row>
     <row r="41">
@@ -6890,7 +6886,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Travée 6</t>
+          <t>Appui 5</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -6917,28 +6913,28 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L41" t="n">
         <v>2.2</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0005654</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O41" t="n">
         <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.000314</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S41" t="n">
         <v>2.91e-05</v>
@@ -6947,95 +6943,95 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="W41" t="n">
-        <v>9.5</v>
+        <v>26.5</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.375</v>
+        <v>96.25</v>
       </c>
       <c r="Z41" t="n">
-        <v>6.1875</v>
+        <v>33.125</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB41" t="n">
-        <v>5.1875</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>11.375</v>
+        <v>129.375</v>
       </c>
       <c r="AD41" t="n">
-        <v>23.2875</v>
+        <v>179.625</v>
       </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>16.5625</v>
+        <v>129.375</v>
       </c>
       <c r="AG41" t="n">
-        <v>5.1875</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>11.375</v>
+        <v>129.375</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.9506389135356316</v>
+        <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.939626294239915</v>
+        <v>16.51809352884182</v>
       </c>
       <c r="AK41" t="n">
-        <v>-45.50398966611332</v>
+        <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>-86.85840176527701</v>
+        <v>-337.1683115731751</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>-389.183100882444</v>
       </c>
       <c r="AN41" t="n">
-        <v>-111.1301349183379</v>
+        <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>23.2875</v>
+        <v>179.625</v>
       </c>
       <c r="AP41" t="n">
-        <v>54.2363335116201</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="n">
-        <v>75.11664946432565</v>
+        <v>150.2365806625913</v>
       </c>
       <c r="AR41" t="n">
-        <v>2.915933415275635</v>
+        <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>-180.4699695397257</v>
+        <v>0</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
       </c>
       <c r="AU41" t="n">
-        <v>-232.6393184589111</v>
+        <v>0</v>
       </c>
       <c r="AV41" t="n">
-        <v>16.5625</v>
+        <v>129.375</v>
       </c>
       <c r="AW41" t="n">
-        <v>2.24452004267548</v>
+        <v>11.20001191486468</v>
       </c>
       <c r="AX41" t="n">
-        <v>-147.4152288353039</v>
+        <v>-342.7403375781192</v>
       </c>
       <c r="AY41" t="n">
-        <v>54.2363335116201</v>
+        <v>150.2365806625913</v>
       </c>
     </row>
     <row r="42">
@@ -7047,7 +7043,11 @@
           <t>File A - 4</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Travée 6</t>
+        </is>
+      </c>
       <c r="D42" t="n">
         <v>25</v>
       </c>
@@ -7072,13 +7072,13 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="L42" t="n">
         <v>2.2</v>
       </c>
       <c r="M42" t="n">
-        <v>1e-05</v>
+        <v>0.0005654</v>
       </c>
       <c r="N42" t="n">
         <v>0.03</v>
@@ -7096,117 +7096,113 @@
         <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>10.375</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>6.1875</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>5.1875</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>23.2875</v>
       </c>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>16.5625</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>5.1875</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>0.9506389135356316</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>1.939626294239915</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>-45.50398966611332</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>-86.85840176527701</v>
       </c>
       <c r="AM42" t="n">
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>-111.1301349183379</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>23.2875</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.7804308298384421</v>
+        <v>54.2363335116201</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.7804308298384421</v>
+        <v>75.11664946432565</v>
       </c>
       <c r="AR42" t="n">
-        <v>0</v>
+        <v>2.915933415275635</v>
       </c>
       <c r="AS42" t="n">
-        <v>0</v>
+        <v>-180.4699695397257</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>0</v>
+        <v>-232.6393184589111</v>
       </c>
       <c r="AV42" t="n">
-        <v>0</v>
+        <v>16.5625</v>
       </c>
       <c r="AW42" t="n">
-        <v>0</v>
+        <v>2.24452004267548</v>
       </c>
       <c r="AX42" t="n">
-        <v>0</v>
+        <v>-147.4152288353039</v>
       </c>
       <c r="AY42" t="n">
-        <v>0.7804308298384421</v>
+        <v>54.2363335116201</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>File A - 5</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Travée 1</t>
-        </is>
-      </c>
+          <t>File A - 4</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
         <v>25</v>
       </c>
@@ -7231,13 +7227,13 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="L43" t="n">
         <v>2.2</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0005700000000000001</v>
+        <v>1e-05</v>
       </c>
       <c r="N43" t="n">
         <v>0.03</v>
@@ -7255,101 +7251,101 @@
         <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>42.15</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>10.1</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>3.651577905692333</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1.717140945142599</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>-174.0482602180306</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>-76.58993357201901</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
         <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>-97.99905200325878</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>42.15</v>
+        <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>54.67237214820803</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ43" t="n">
-        <v>75.51286257239246</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR43" t="n">
-        <v>5.132451832878084</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>-324.7424868087765</v>
+        <v>0</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
       </c>
       <c r="AU43" t="n">
-        <v>-418.8141617341554</v>
+        <v>0</v>
       </c>
       <c r="AV43" t="n">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>3.986853778284144</v>
+        <v>0</v>
       </c>
       <c r="AX43" t="n">
-        <v>-266.035451751631</v>
+        <v>0</v>
       </c>
       <c r="AY43" t="n">
-        <v>54.67237214820803</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="44">
@@ -7363,7 +7359,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Appui 1</t>
+          <t>Travée 1</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -7390,16 +7386,16 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L44" t="n">
         <v>2.2</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0019</v>
+        <v>0.0005700000000000001</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O44" t="n">
         <v>1</v>
@@ -7420,95 +7416,95 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="W44" t="n">
-        <v>34</v>
+        <v>10.1</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="n">
-        <v>34</v>
+        <v>10.1</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AC44" t="n">
-        <v>34</v>
+        <v>10.1</v>
       </c>
       <c r="AD44" t="n">
-        <v>177.9</v>
+        <v>42.15</v>
       </c>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="n">
-        <v>128</v>
+        <v>30.1</v>
       </c>
       <c r="AG44" t="n">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="AH44" t="n">
-        <v>34</v>
+        <v>10.1</v>
       </c>
       <c r="AI44" t="n">
-        <v>14.30023953988204</v>
+        <v>3.651577905692333</v>
       </c>
       <c r="AJ44" t="n">
-        <v>4.811504725509991</v>
+        <v>1.717140945142599</v>
       </c>
       <c r="AK44" t="n">
-        <v>-314.6120368424469</v>
+        <v>-174.0482602180306</v>
       </c>
       <c r="AL44" t="n">
-        <v>-100.5296184323485</v>
+        <v>-76.58993357201901</v>
       </c>
       <c r="AM44" t="n">
         <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>-161.4811343954901</v>
+        <v>-97.99905200325878</v>
       </c>
       <c r="AO44" t="n">
-        <v>177.9</v>
+        <v>42.15</v>
       </c>
       <c r="AP44" t="n">
-        <v>133.900223728827</v>
+        <v>54.67237214820803</v>
       </c>
       <c r="AQ44" t="n">
-        <v>174.3477017488384</v>
+        <v>75.51286257239246</v>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>5.132451832878084</v>
       </c>
       <c r="AS44" t="n">
-        <v>0</v>
+        <v>-324.7424868087765</v>
       </c>
       <c r="AT44" t="n">
         <v>0</v>
       </c>
       <c r="AU44" t="n">
-        <v>0</v>
+        <v>-418.8141617341554</v>
       </c>
       <c r="AV44" t="n">
-        <v>128</v>
+        <v>30.1</v>
       </c>
       <c r="AW44" t="n">
-        <v>14.89442273151562</v>
+        <v>3.986853778284144</v>
       </c>
       <c r="AX44" t="n">
-        <v>-436.0708054676184</v>
+        <v>-266.035451751631</v>
       </c>
       <c r="AY44" t="n">
-        <v>133.900223728827</v>
+        <v>54.67237214820803</v>
       </c>
     </row>
     <row r="45">
@@ -7522,7 +7518,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Travée 2</t>
+          <t>Appui 1</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -7549,16 +7545,16 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L45" t="n">
         <v>2.2</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0008500000000000001</v>
+        <v>0.0019</v>
       </c>
       <c r="N45" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
@@ -7579,95 +7575,95 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="W45" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="Z45" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AC45" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AD45" t="n">
-        <v>87.75</v>
+        <v>177.9</v>
       </c>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="n">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="AG45" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AH45" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AI45" t="n">
-        <v>8.408591221921448</v>
+        <v>14.30023953988204</v>
       </c>
       <c r="AJ45" t="n">
-        <v>2.920098184460784</v>
+        <v>4.811504725509991</v>
       </c>
       <c r="AK45" t="n">
-        <v>-301.3665999874946</v>
+        <v>-314.6120368424469</v>
       </c>
       <c r="AL45" t="n">
-        <v>-92.15963124744165</v>
+        <v>-100.5296184323485</v>
       </c>
       <c r="AM45" t="n">
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>-121.1246117151098</v>
+        <v>-161.4811343954901</v>
       </c>
       <c r="AO45" t="n">
-        <v>87.75</v>
+        <v>177.9</v>
       </c>
       <c r="AP45" t="n">
-        <v>71.0116055049231</v>
+        <v>133.900223728827</v>
       </c>
       <c r="AQ45" t="n">
-        <v>130.6937967095548</v>
+        <v>174.3477017488384</v>
       </c>
       <c r="AR45" t="n">
-        <v>10.15255563260925</v>
+        <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>-435.120190294209</v>
+        <v>0</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
       </c>
       <c r="AU45" t="n">
-        <v>-701.2389716402863</v>
+        <v>0</v>
       </c>
       <c r="AV45" t="n">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="AW45" t="n">
-        <v>8.165810115287865</v>
+        <v>14.89442273151562</v>
       </c>
       <c r="AX45" t="n">
-        <v>-431.7411232266477</v>
+        <v>-436.0708054676184</v>
       </c>
       <c r="AY45" t="n">
-        <v>71.0116055049231</v>
+        <v>133.900223728827</v>
       </c>
     </row>
     <row r="46">
@@ -7681,7 +7677,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Appui 2</t>
+          <t>Travée 2</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -7708,13 +7704,13 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L46" t="n">
         <v>2.2</v>
       </c>
       <c r="M46" t="n">
-        <v>0.00263</v>
+        <v>0.0008500000000000001</v>
       </c>
       <c r="N46" t="n">
         <v>0.03</v>
@@ -7732,101 +7728,101 @@
         <v>1</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V46" t="n">
-        <v>77.5</v>
+        <v>45</v>
       </c>
       <c r="W46" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.5</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>77.5</v>
+        <v>45</v>
       </c>
       <c r="AC46" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AD46" t="n">
-        <v>152.625</v>
+        <v>87.75</v>
       </c>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="n">
-        <v>109.5</v>
+        <v>63</v>
       </c>
       <c r="AG46" t="n">
-        <v>77.5</v>
+        <v>45</v>
       </c>
       <c r="AH46" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AI46" t="n">
-        <v>10.36332779836049</v>
+        <v>8.408591221921448</v>
       </c>
       <c r="AJ46" t="n">
-        <v>4.279051478032721</v>
+        <v>2.920098184460784</v>
       </c>
       <c r="AK46" t="n">
-        <v>-189.7176168609654</v>
+        <v>-301.3665999874946</v>
       </c>
       <c r="AL46" t="n">
-        <v>-78.33501599420505</v>
+        <v>-92.15963124744165</v>
       </c>
       <c r="AM46" t="n">
         <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>-121.1246117151098</v>
       </c>
       <c r="AO46" t="n">
-        <v>152.625</v>
+        <v>87.75</v>
       </c>
       <c r="AP46" t="n">
-        <v>178.5298517827331</v>
+        <v>71.0116055049231</v>
       </c>
       <c r="AQ46" t="n">
-        <v>178.5298517827331</v>
+        <v>130.6937967095548</v>
       </c>
       <c r="AR46" t="n">
-        <v>13.4253424827782</v>
+        <v>10.15255563260925</v>
       </c>
       <c r="AS46" t="n">
-        <v>-391.5722693914134</v>
+        <v>-435.120190294209</v>
       </c>
       <c r="AT46" t="n">
         <v>0</v>
       </c>
       <c r="AU46" t="n">
-        <v>0</v>
+        <v>-701.2389716402863</v>
       </c>
       <c r="AV46" t="n">
-        <v>109.5</v>
+        <v>63</v>
       </c>
       <c r="AW46" t="n">
-        <v>10.29230638375299</v>
+        <v>8.165810115287865</v>
       </c>
       <c r="AX46" t="n">
-        <v>-279.1087733020032</v>
+        <v>-431.7411232266477</v>
       </c>
       <c r="AY46" t="n">
-        <v>178.5298517827331</v>
+        <v>71.0116055049231</v>
       </c>
     </row>
     <row r="47">
@@ -7840,7 +7836,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Travée 3</t>
+          <t>Appui 2</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -7867,13 +7863,13 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L47" t="n">
         <v>2.2</v>
       </c>
       <c r="M47" t="n">
-        <v>0.00028</v>
+        <v>0.00263</v>
       </c>
       <c r="N47" t="n">
         <v>0.03</v>
@@ -7891,101 +7887,101 @@
         <v>1</v>
       </c>
       <c r="S47" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="W47" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.5</v>
+        <v>152.625</v>
       </c>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="n">
-        <v>5</v>
+        <v>109.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>10.36332779836049</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1.332714284013234</v>
+        <v>4.279051478032721</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>-189.7176168609654</v>
       </c>
       <c r="AL47" t="n">
-        <v>-75.99995844675983</v>
+        <v>-78.33501599420505</v>
       </c>
       <c r="AM47" t="n">
         <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>-98.66724421587689</v>
+        <v>0</v>
       </c>
       <c r="AO47" t="n">
-        <v>7.5</v>
+        <v>152.625</v>
       </c>
       <c r="AP47" t="n">
-        <v>23.80896442687749</v>
+        <v>178.5298517827331</v>
       </c>
       <c r="AQ47" t="n">
-        <v>44.60531027438888</v>
+        <v>178.5298517827331</v>
       </c>
       <c r="AR47" t="n">
-        <v>1.473600123975807</v>
+        <v>13.4253424827782</v>
       </c>
       <c r="AS47" t="n">
-        <v>-115.2123826852277</v>
+        <v>-391.5722693914134</v>
       </c>
       <c r="AT47" t="n">
         <v>0</v>
       </c>
       <c r="AU47" t="n">
-        <v>-150.5123063442344</v>
+        <v>0</v>
       </c>
       <c r="AV47" t="n">
-        <v>5</v>
+        <v>109.5</v>
       </c>
       <c r="AW47" t="n">
-        <v>1.143209205131024</v>
+        <v>10.29230638375299</v>
       </c>
       <c r="AX47" t="n">
-        <v>-100.6265284002398</v>
+        <v>-279.1087733020032</v>
       </c>
       <c r="AY47" t="n">
-        <v>23.80896442687749</v>
+        <v>178.5298517827331</v>
       </c>
     </row>
     <row r="48">
@@ -7999,7 +7995,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Appui 3</t>
+          <t>Travée 3</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -8026,16 +8022,16 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L48" t="n">
         <v>2.2</v>
       </c>
       <c r="M48" t="n">
-        <v>0.00195</v>
+        <v>0.00028</v>
       </c>
       <c r="N48" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O48" t="n">
         <v>1</v>
@@ -8050,101 +8046,101 @@
         <v>1</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD48" t="n">
-        <v>35.25</v>
+        <v>7.5</v>
       </c>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI48" t="n">
-        <v>2.257288442146188</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1.504858961430792</v>
+        <v>1.332714284013234</v>
       </c>
       <c r="AK48" t="n">
-        <v>-48.96769002727653</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>-32.64512668485101</v>
+        <v>-75.99995844675983</v>
       </c>
       <c r="AM48" t="n">
         <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>-98.66724421587689</v>
       </c>
       <c r="AO48" t="n">
-        <v>35.25</v>
+        <v>7.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>137.0466606626849</v>
+        <v>23.80896442687749</v>
       </c>
       <c r="AQ48" t="n">
-        <v>137.0466606626849</v>
+        <v>44.60531027438888</v>
       </c>
       <c r="AR48" t="n">
-        <v>3.998918288495209</v>
+        <v>1.473600123975807</v>
       </c>
       <c r="AS48" t="n">
-        <v>-118.432601456216</v>
+        <v>-115.2123826852277</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
       </c>
       <c r="AU48" t="n">
-        <v>0</v>
+        <v>-150.5123063442344</v>
       </c>
       <c r="AV48" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AW48" t="n">
-        <v>2.868347707839445</v>
+        <v>1.143209205131024</v>
       </c>
       <c r="AX48" t="n">
-        <v>-83.91604947419071</v>
+        <v>-100.6265284002398</v>
       </c>
       <c r="AY48" t="n">
-        <v>137.0466606626849</v>
+        <v>23.80896442687749</v>
       </c>
     </row>
     <row r="49">
@@ -8158,7 +8154,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Travée 4</t>
+          <t>Appui 3</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -8185,16 +8181,16 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L49" t="n">
         <v>2.2</v>
       </c>
       <c r="M49" t="n">
-        <v>0.00028</v>
+        <v>0.00195</v>
       </c>
       <c r="N49" t="n">
-        <v>0.035</v>
+        <v>0.06</v>
       </c>
       <c r="O49" t="n">
         <v>1</v>
@@ -8209,101 +8205,101 @@
         <v>1</v>
       </c>
       <c r="S49" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="W49" t="n">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Z49" t="n">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AC49" t="n">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="AD49" t="n">
-        <v>17.25</v>
+        <v>35.25</v>
       </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="n">
-        <v>12.1</v>
+        <v>25</v>
       </c>
       <c r="AG49" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AH49" t="n">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="AI49" t="n">
-        <v>1.928735690528997</v>
+        <v>2.257288442146188</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1.679472613311351</v>
+        <v>1.504858961430792</v>
       </c>
       <c r="AK49" t="n">
-        <v>-122.8781972599647</v>
+        <v>-48.96769002727653</v>
       </c>
       <c r="AL49" t="n">
-        <v>-93.98427837235309</v>
+        <v>-32.64512668485101</v>
       </c>
       <c r="AM49" t="n">
         <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>-125.7674174648318</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>17.25</v>
+        <v>35.25</v>
       </c>
       <c r="AP49" t="n">
-        <v>23.15666403162064</v>
+        <v>137.0466606626849</v>
       </c>
       <c r="AQ49" t="n">
-        <v>43.98404056398358</v>
+        <v>137.0466606626849</v>
       </c>
       <c r="AR49" t="n">
-        <v>3.426536340209182</v>
+        <v>3.998918288495209</v>
       </c>
       <c r="AS49" t="n">
-        <v>-268.7282121581202</v>
+        <v>-118.432601456216</v>
       </c>
       <c r="AT49" t="n">
         <v>0</v>
       </c>
       <c r="AU49" t="n">
-        <v>-362.3792787143417</v>
+        <v>0</v>
       </c>
       <c r="AV49" t="n">
-        <v>12.1</v>
+        <v>25</v>
       </c>
       <c r="AW49" t="n">
-        <v>2.835990014080558</v>
+        <v>2.868347707839445</v>
       </c>
       <c r="AX49" t="n">
-        <v>-250.5631048585975</v>
+        <v>-83.91604947419071</v>
       </c>
       <c r="AY49" t="n">
-        <v>23.15666403162064</v>
+        <v>137.0466606626849</v>
       </c>
     </row>
     <row r="50">
@@ -8317,7 +8313,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Appui 4</t>
+          <t>Travée 4</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -8344,16 +8340,16 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L50" t="n">
         <v>2.2</v>
       </c>
       <c r="M50" t="n">
-        <v>0.00263</v>
+        <v>0.00028</v>
       </c>
       <c r="N50" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="O50" t="n">
         <v>1</v>
@@ -8368,101 +8364,101 @@
         <v>1</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="W50" t="n">
-        <v>25</v>
+        <v>6.1</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="Z50" t="n">
-        <v>25</v>
+        <v>6.1</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="AC50" t="n">
-        <v>25</v>
+        <v>6.1</v>
       </c>
       <c r="AD50" t="n">
-        <v>126.6</v>
+        <v>17.25</v>
       </c>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="n">
-        <v>91</v>
+        <v>12.1</v>
       </c>
       <c r="AG50" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="AH50" t="n">
-        <v>25</v>
+        <v>6.1</v>
       </c>
       <c r="AI50" t="n">
-        <v>8.825543673442493</v>
+        <v>1.928735690528997</v>
       </c>
       <c r="AJ50" t="n">
-        <v>3.343008967213065</v>
+        <v>1.679472613311351</v>
       </c>
       <c r="AK50" t="n">
-        <v>-161.5659704880479</v>
+        <v>-122.8781972599647</v>
       </c>
       <c r="AL50" t="n">
-        <v>-61.1992312454727</v>
+        <v>-93.98427837235309</v>
       </c>
       <c r="AM50" t="n">
         <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>-125.7674174648318</v>
       </c>
       <c r="AO50" t="n">
-        <v>126.6</v>
+        <v>17.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>178.5298517827331</v>
+        <v>23.15666403162064</v>
       </c>
       <c r="AQ50" t="n">
-        <v>178.5298517827331</v>
+        <v>43.98404056398358</v>
       </c>
       <c r="AR50" t="n">
-        <v>11.61336922572007</v>
+        <v>3.426536340209182</v>
       </c>
       <c r="AS50" t="n">
-        <v>-323.4786554561382</v>
+        <v>-268.7282121581202</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
       </c>
       <c r="AU50" t="n">
-        <v>0</v>
+        <v>-362.3792787143417</v>
       </c>
       <c r="AV50" t="n">
-        <v>91</v>
+        <v>12.1</v>
       </c>
       <c r="AW50" t="n">
-        <v>8.761829640345878</v>
+        <v>2.835990014080558</v>
       </c>
       <c r="AX50" t="n">
-        <v>-231.3895557920962</v>
+        <v>-250.5631048585975</v>
       </c>
       <c r="AY50" t="n">
-        <v>178.5298517827331</v>
+        <v>23.15666403162064</v>
       </c>
     </row>
     <row r="51">
@@ -8476,7 +8472,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Travée 5</t>
+          <t>Appui 4</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -8503,13 +8499,13 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L51" t="n">
         <v>2.2</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0008470000000000001</v>
+        <v>0.00263</v>
       </c>
       <c r="N51" t="n">
         <v>0.03</v>
@@ -8527,101 +8523,101 @@
         <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="W51" t="n">
-        <v>13.1</v>
+        <v>25</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>35.1525</v>
+        <v>66</v>
       </c>
       <c r="Z51" t="n">
-        <v>13.15375</v>
+        <v>25</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>35.1525</v>
+        <v>66</v>
       </c>
       <c r="AC51" t="n">
-        <v>13.15375</v>
+        <v>25</v>
       </c>
       <c r="AD51" t="n">
-        <v>67.18650000000001</v>
+        <v>126.6</v>
       </c>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="n">
-        <v>48.30625000000001</v>
+        <v>91</v>
       </c>
       <c r="AG51" t="n">
-        <v>35.1525</v>
+        <v>66</v>
       </c>
       <c r="AH51" t="n">
-        <v>13.15375</v>
+        <v>25</v>
       </c>
       <c r="AI51" t="n">
-        <v>6.579394733435876</v>
+        <v>8.825543673442493</v>
       </c>
       <c r="AJ51" t="n">
-        <v>2.136173624160508</v>
+        <v>3.343008967213065</v>
       </c>
       <c r="AK51" t="n">
-        <v>-236.226406528323</v>
+        <v>-161.5659704880479</v>
       </c>
       <c r="AL51" t="n">
-        <v>-67.5243748674327</v>
+        <v>-61.1992312454727</v>
       </c>
       <c r="AM51" t="n">
         <v>0</v>
       </c>
       <c r="AN51" t="n">
-        <v>-88.7429076876092</v>
+        <v>0</v>
       </c>
       <c r="AO51" t="n">
-        <v>67.18650000000001</v>
+        <v>126.6</v>
       </c>
       <c r="AP51" t="n">
-        <v>70.77518339887844</v>
+        <v>178.5298517827331</v>
       </c>
       <c r="AQ51" t="n">
-        <v>130.4778122285267</v>
+        <v>178.5298517827331</v>
       </c>
       <c r="AR51" t="n">
-        <v>7.679481567811216</v>
+        <v>11.61336922572007</v>
       </c>
       <c r="AS51" t="n">
-        <v>-352.0045370133279</v>
+        <v>-323.4786554561382</v>
       </c>
       <c r="AT51" t="n">
         <v>0</v>
       </c>
       <c r="AU51" t="n">
-        <v>-468.9513614886149</v>
+        <v>0</v>
       </c>
       <c r="AV51" t="n">
-        <v>48.30625000000001</v>
+        <v>91</v>
       </c>
       <c r="AW51" t="n">
-        <v>6.428032441817428</v>
+        <v>8.761829640345878</v>
       </c>
       <c r="AX51" t="n">
-        <v>-331.6885051767575</v>
+        <v>-231.3895557920962</v>
       </c>
       <c r="AY51" t="n">
-        <v>70.77518339887844</v>
+        <v>178.5298517827331</v>
       </c>
     </row>
     <row r="52">
@@ -8635,7 +8631,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Appui 5</t>
+          <t>Travée 5</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -8662,16 +8658,16 @@
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L52" t="n">
         <v>2.2</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0011066</v>
+        <v>0.0008470000000000001</v>
       </c>
       <c r="N52" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O52" t="n">
         <v>1</v>
@@ -8686,101 +8682,101 @@
         <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V52" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="W52" t="n">
-        <v>21.5</v>
+        <v>13.1</v>
       </c>
       <c r="X52" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>60.695</v>
+        <v>35.1525</v>
       </c>
       <c r="Z52" t="n">
-        <v>21.3925</v>
+        <v>13.15375</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>60.695</v>
+        <v>35.1525</v>
       </c>
       <c r="AC52" t="n">
-        <v>21.3925</v>
+        <v>13.15375</v>
       </c>
       <c r="AD52" t="n">
-        <v>114.027</v>
+        <v>67.18650000000001</v>
       </c>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="n">
-        <v>82.08750000000001</v>
+        <v>48.30625000000001</v>
       </c>
       <c r="AG52" t="n">
-        <v>60.695</v>
+        <v>35.1525</v>
       </c>
       <c r="AH52" t="n">
-        <v>21.3925</v>
+        <v>13.15375</v>
       </c>
       <c r="AI52" t="n">
-        <v>11.53300604918928</v>
+        <v>6.579394733435876</v>
       </c>
       <c r="AJ52" t="n">
-        <v>4.064911968156875</v>
+        <v>2.136173624160508</v>
       </c>
       <c r="AK52" t="n">
-        <v>-343.0453825916528</v>
+        <v>-236.226406528323</v>
       </c>
       <c r="AL52" t="n">
-        <v>-120.9094381265662</v>
+        <v>-67.5243748674327</v>
       </c>
       <c r="AM52" t="n">
         <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>-88.7429076876092</v>
       </c>
       <c r="AO52" t="n">
-        <v>114.027</v>
+        <v>67.18650000000001</v>
       </c>
       <c r="AP52" t="n">
-        <v>82.12256069827342</v>
+        <v>70.77518339887844</v>
       </c>
       <c r="AQ52" t="n">
-        <v>82.12256069827342</v>
+        <v>130.4778122285267</v>
       </c>
       <c r="AR52" t="n">
-        <v>0</v>
+        <v>7.679481567811216</v>
       </c>
       <c r="AS52" t="n">
-        <v>0</v>
+        <v>-352.0045370133279</v>
       </c>
       <c r="AT52" t="n">
         <v>0</v>
       </c>
       <c r="AU52" t="n">
-        <v>0</v>
+        <v>-468.9513614886149</v>
       </c>
       <c r="AV52" t="n">
-        <v>82.08750000000001</v>
+        <v>48.30625000000001</v>
       </c>
       <c r="AW52" t="n">
-        <v>16.66666666666667</v>
+        <v>6.428032441817428</v>
       </c>
       <c r="AX52" t="n">
-        <v>-455.2111017655436</v>
+        <v>-331.6885051767575</v>
       </c>
       <c r="AY52" t="n">
-        <v>82.12256069827342</v>
+        <v>70.77518339887844</v>
       </c>
     </row>
     <row r="53">
@@ -8794,7 +8790,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Travée 6</t>
+          <t>Appui 5</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -8821,16 +8817,16 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L53" t="n">
         <v>2.2</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0005700000000000001</v>
+        <v>0.0011066</v>
       </c>
       <c r="N53" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O53" t="n">
         <v>1</v>
@@ -8845,101 +8841,101 @@
         <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="W53" t="n">
-        <v>5</v>
+        <v>21.5</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="Y53" t="n">
-        <v>14.1525</v>
+        <v>60.695</v>
       </c>
       <c r="Z53" t="n">
-        <v>5.05375</v>
+        <v>21.3925</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>14.1525</v>
+        <v>60.695</v>
       </c>
       <c r="AC53" t="n">
-        <v>5.05375</v>
+        <v>21.3925</v>
       </c>
       <c r="AD53" t="n">
-        <v>26.6865</v>
+        <v>114.027</v>
       </c>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="n">
-        <v>19.20625</v>
+        <v>82.08750000000001</v>
       </c>
       <c r="AG53" t="n">
-        <v>14.1525</v>
+        <v>60.695</v>
       </c>
       <c r="AH53" t="n">
-        <v>5.05375</v>
+        <v>21.3925</v>
       </c>
       <c r="AI53" t="n">
-        <v>2.583947815515539</v>
+        <v>11.53300604918928</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.859208024902418</v>
+        <v>4.064911968156875</v>
       </c>
       <c r="AK53" t="n">
-        <v>-123.1609001367839</v>
+        <v>-343.0453825916528</v>
       </c>
       <c r="AL53" t="n">
-        <v>-38.32340364253377</v>
+        <v>-120.9094381265662</v>
       </c>
       <c r="AM53" t="n">
         <v>0</v>
       </c>
       <c r="AN53" t="n">
-        <v>-49.03591178826427</v>
+        <v>0</v>
       </c>
       <c r="AO53" t="n">
-        <v>26.6865</v>
+        <v>114.027</v>
       </c>
       <c r="AP53" t="n">
-        <v>54.67237214820803</v>
+        <v>82.12256069827342</v>
       </c>
       <c r="AQ53" t="n">
-        <v>75.51286257239246</v>
+        <v>82.12256069827342</v>
       </c>
       <c r="AR53" t="n">
-        <v>3.317574696025758</v>
+        <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>-205.4321241704353</v>
+        <v>0</v>
       </c>
       <c r="AT53" t="n">
         <v>0</v>
       </c>
       <c r="AU53" t="n">
-        <v>-264.8603186572502</v>
+        <v>0</v>
       </c>
       <c r="AV53" t="n">
-        <v>19.20625</v>
+        <v>82.08750000000001</v>
       </c>
       <c r="AW53" t="n">
-        <v>2.583984239951435</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AX53" t="n">
-        <v>-169.6338727583104</v>
+        <v>-455.2111017655436</v>
       </c>
       <c r="AY53" t="n">
-        <v>54.67237214820803</v>
+        <v>82.12256069827342</v>
       </c>
     </row>
     <row r="54">
@@ -8951,7 +8947,11 @@
           <t>File A - 5</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Travée 6</t>
+        </is>
+      </c>
       <c r="D54" t="n">
         <v>25</v>
       </c>
@@ -8976,13 +8976,13 @@
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="L54" t="n">
         <v>2.2</v>
       </c>
       <c r="M54" t="n">
-        <v>1e-05</v>
+        <v>0.0005700000000000001</v>
       </c>
       <c r="N54" t="n">
         <v>0.03</v>
@@ -9000,117 +9000,113 @@
         <v>1</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>14.1525</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>5.05375</v>
       </c>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>14.1525</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>5.05375</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>26.6865</v>
       </c>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>19.20625</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>14.1525</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>5.05375</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>2.583947815515539</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>0.859208024902418</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>-123.1609001367839</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>-38.32340364253377</v>
       </c>
       <c r="AM54" t="n">
         <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>-49.03591178826427</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>26.6865</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.7804308298384421</v>
+        <v>54.67237214820803</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.7804308298384421</v>
+        <v>75.51286257239246</v>
       </c>
       <c r="AR54" t="n">
-        <v>0</v>
+        <v>3.317574696025758</v>
       </c>
       <c r="AS54" t="n">
-        <v>0</v>
+        <v>-205.4321241704353</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
       </c>
       <c r="AU54" t="n">
-        <v>0</v>
+        <v>-264.8603186572502</v>
       </c>
       <c r="AV54" t="n">
-        <v>0</v>
+        <v>19.20625</v>
       </c>
       <c r="AW54" t="n">
-        <v>0</v>
+        <v>2.583984239951435</v>
       </c>
       <c r="AX54" t="n">
-        <v>0</v>
+        <v>-169.6338727583104</v>
       </c>
       <c r="AY54" t="n">
-        <v>0.7804308298384421</v>
+        <v>54.67237214820803</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>File A - 6</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Travée 1</t>
-        </is>
-      </c>
+          <t>File A - 5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
         <v>25</v>
       </c>
@@ -9135,13 +9131,13 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="L55" t="n">
         <v>2.2</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0005700000000000001</v>
+        <v>1e-05</v>
       </c>
       <c r="N55" t="n">
         <v>0.03</v>
@@ -9159,101 +9155,101 @@
         <v>1</v>
       </c>
       <c r="S55" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>44.7</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AH55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI55" t="n">
-        <v>4.016735696261568</v>
+        <v>0</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1.700139549646138</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>-191.4530862398337</v>
+        <v>0</v>
       </c>
       <c r="AL55" t="n">
-        <v>-75.83161739803863</v>
+        <v>0</v>
       </c>
       <c r="AM55" t="n">
         <v>0</v>
       </c>
       <c r="AN55" t="n">
-        <v>-97.02876435966218</v>
+        <v>0</v>
       </c>
       <c r="AO55" t="n">
-        <v>44.7</v>
+        <v>0</v>
       </c>
       <c r="AP55" t="n">
-        <v>54.67237214820803</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ55" t="n">
-        <v>75.51286257239246</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR55" t="n">
-        <v>5.423691396561409</v>
+        <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>-344.4379498179284</v>
+        <v>0</v>
       </c>
       <c r="AT55" t="n">
         <v>0</v>
       </c>
       <c r="AU55" t="n">
-        <v>-444.2385644414837</v>
+        <v>0</v>
       </c>
       <c r="AV55" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AW55" t="n">
-        <v>4.22667385549595</v>
+        <v>0</v>
       </c>
       <c r="AX55" t="n">
-        <v>-282.8635677268498</v>
+        <v>0</v>
       </c>
       <c r="AY55" t="n">
-        <v>54.67237214820803</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="56">
@@ -9267,7 +9263,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Appui 1</t>
+          <t>Travée 1</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -9294,16 +9290,16 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L56" t="n">
         <v>2.2</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0019</v>
+        <v>0.0005700000000000001</v>
       </c>
       <c r="N56" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O56" t="n">
         <v>1</v>
@@ -9324,95 +9320,95 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>78.5</v>
+        <v>22</v>
       </c>
       <c r="W56" t="n">
-        <v>27.5</v>
+        <v>10</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>78.5</v>
+        <v>22</v>
       </c>
       <c r="Z56" t="n">
-        <v>27.5</v>
+        <v>10</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>78.5</v>
+        <v>22</v>
       </c>
       <c r="AC56" t="n">
-        <v>27.5</v>
+        <v>10</v>
       </c>
       <c r="AD56" t="n">
-        <v>147.225</v>
+        <v>44.7</v>
       </c>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="n">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="AG56" t="n">
-        <v>78.5</v>
+        <v>22</v>
       </c>
       <c r="AH56" t="n">
-        <v>27.5</v>
+        <v>10</v>
       </c>
       <c r="AI56" t="n">
-        <v>11.94222131788021</v>
+        <v>4.016735696261568</v>
       </c>
       <c r="AJ56" t="n">
-        <v>3.891658233868376</v>
+        <v>1.700139549646138</v>
       </c>
       <c r="AK56" t="n">
-        <v>-262.7345201290648</v>
+        <v>-191.4530862398337</v>
       </c>
       <c r="AL56" t="n">
-        <v>-81.31072079087011</v>
+        <v>-75.83161739803863</v>
       </c>
       <c r="AM56" t="n">
         <v>0</v>
       </c>
       <c r="AN56" t="n">
-        <v>-130.6097410551758</v>
+        <v>-97.02876435966218</v>
       </c>
       <c r="AO56" t="n">
-        <v>147.225</v>
+        <v>44.7</v>
       </c>
       <c r="AP56" t="n">
-        <v>133.900223728827</v>
+        <v>54.67237214820803</v>
       </c>
       <c r="AQ56" t="n">
-        <v>174.3477017488384</v>
+        <v>75.51286257239246</v>
       </c>
       <c r="AR56" t="n">
-        <v>14.07475655668353</v>
+        <v>5.423691396561409</v>
       </c>
       <c r="AS56" t="n">
-        <v>-435.1652417600425</v>
+        <v>-344.4379498179284</v>
       </c>
       <c r="AT56" t="n">
         <v>0</v>
       </c>
       <c r="AU56" t="n">
-        <v>-897.7103859472162</v>
+        <v>-444.2385644414837</v>
       </c>
       <c r="AV56" t="n">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="AW56" t="n">
-        <v>11.01923737485054</v>
+        <v>4.22667385549595</v>
       </c>
       <c r="AX56" t="n">
-        <v>-368.0952744938995</v>
+        <v>-282.8635677268498</v>
       </c>
       <c r="AY56" t="n">
-        <v>133.900223728827</v>
+        <v>54.67237214820803</v>
       </c>
     </row>
     <row r="57">
@@ -9426,7 +9422,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Travée 2</t>
+          <t>Appui 1</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -9453,16 +9449,16 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L57" t="n">
         <v>2.2</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0008470000000000001</v>
+        <v>0.0019</v>
       </c>
       <c r="N57" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -9483,95 +9479,95 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
-        <v>35.5</v>
+        <v>78.5</v>
       </c>
       <c r="W57" t="n">
-        <v>14</v>
+        <v>27.5</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>35.5</v>
+        <v>78.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>14</v>
+        <v>27.5</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>35.5</v>
+        <v>78.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>14</v>
+        <v>27.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>68.92500000000001</v>
+        <v>147.225</v>
       </c>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="n">
-        <v>49.5</v>
+        <v>106</v>
       </c>
       <c r="AG57" t="n">
-        <v>35.5</v>
+        <v>78.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>14</v>
+        <v>27.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>7.575894612742514</v>
+        <v>11.94222131788021</v>
       </c>
       <c r="AJ57" t="n">
-        <v>2.503838820942616</v>
+        <v>3.891658233868376</v>
       </c>
       <c r="AK57" t="n">
-        <v>-260.227153011369</v>
+        <v>-262.7345201290648</v>
       </c>
       <c r="AL57" t="n">
-        <v>-74.6926266824359</v>
+        <v>-81.31072079087011</v>
       </c>
       <c r="AM57" t="n">
         <v>0</v>
       </c>
       <c r="AN57" t="n">
-        <v>-108.5431285125431</v>
+        <v>-130.6097410551758</v>
       </c>
       <c r="AO57" t="n">
-        <v>68.92500000000001</v>
+        <v>147.225</v>
       </c>
       <c r="AP57" t="n">
-        <v>64.49328836319663</v>
+        <v>133.900223728827</v>
       </c>
       <c r="AQ57" t="n">
-        <v>124.8439447755377</v>
+        <v>174.3477017488384</v>
       </c>
       <c r="AR57" t="n">
-        <v>8.570664648879047</v>
+        <v>14.07475655668353</v>
       </c>
       <c r="AS57" t="n">
-        <v>-374.7191385480178</v>
+        <v>-435.1652417600425</v>
       </c>
       <c r="AT57" t="n">
         <v>0</v>
       </c>
       <c r="AU57" t="n">
-        <v>-556.5951208661578</v>
+        <v>-897.7103859472162</v>
       </c>
       <c r="AV57" t="n">
-        <v>49.5</v>
+        <v>106</v>
       </c>
       <c r="AW57" t="n">
-        <v>7.435259332580312</v>
+        <v>11.01923737485054</v>
       </c>
       <c r="AX57" t="n">
-        <v>-371.2383502882922</v>
+        <v>-368.0952744938995</v>
       </c>
       <c r="AY57" t="n">
-        <v>64.49328836319663</v>
+        <v>133.900223728827</v>
       </c>
     </row>
     <row r="58">
@@ -9583,7 +9579,11 @@
           <t>File A - 6</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Travée 2</t>
+        </is>
+      </c>
       <c r="D58" t="n">
         <v>25</v>
       </c>
@@ -9608,16 +9608,16 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L58" t="n">
         <v>2.2</v>
       </c>
       <c r="M58" t="n">
-        <v>1e-05</v>
+        <v>0.0008470000000000001</v>
       </c>
       <c r="N58" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="O58" t="n">
         <v>1</v>
@@ -9632,101 +9632,101 @@
         <v>1</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>68.92500000000001</v>
       </c>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>7.575894612742514</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0</v>
+        <v>2.503838820942616</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>-260.227153011369</v>
       </c>
       <c r="AL58" t="n">
-        <v>0</v>
+        <v>-74.6926266824359</v>
       </c>
       <c r="AM58" t="n">
         <v>0</v>
       </c>
       <c r="AN58" t="n">
-        <v>0</v>
+        <v>-108.5431285125431</v>
       </c>
       <c r="AO58" t="n">
-        <v>0</v>
+        <v>68.92500000000001</v>
       </c>
       <c r="AP58" t="n">
-        <v>0.7804308298384421</v>
+        <v>64.49328836319663</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.7804308298384421</v>
+        <v>124.8439447755377</v>
       </c>
       <c r="AR58" t="n">
-        <v>0</v>
+        <v>8.570664648879047</v>
       </c>
       <c r="AS58" t="n">
-        <v>0</v>
+        <v>-374.7191385480178</v>
       </c>
       <c r="AT58" t="n">
         <v>0</v>
       </c>
       <c r="AU58" t="n">
-        <v>0</v>
+        <v>-556.5951208661578</v>
       </c>
       <c r="AV58" t="n">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="AW58" t="n">
-        <v>0</v>
+        <v>7.435259332580312</v>
       </c>
       <c r="AX58" t="n">
-        <v>0</v>
+        <v>-371.2383502882922</v>
       </c>
       <c r="AY58" t="n">
-        <v>0.7804308298384421</v>
+        <v>64.49328836319663</v>
       </c>
     </row>
     <row r="59">
@@ -9738,11 +9738,7 @@
           <t>File A - 6</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Travée 3</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
         <v>25</v>
       </c>
@@ -9767,13 +9763,13 @@
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L59" t="n">
         <v>2.2</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0008500000000000001</v>
+        <v>1e-05</v>
       </c>
       <c r="N59" t="n">
         <v>0.03</v>
@@ -9800,53 +9796,53 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>40.05</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AH59" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AI59" t="n">
-        <v>3.924009236896674</v>
+        <v>0</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1.45748914513305</v>
+        <v>0</v>
       </c>
       <c r="AK59" t="n">
-        <v>-140.6377466608308</v>
+        <v>0</v>
       </c>
       <c r="AL59" t="n">
-        <v>-52.23687733116574</v>
+        <v>0</v>
       </c>
       <c r="AM59" t="n">
         <v>0</v>
@@ -9855,19 +9851,19 @@
         <v>0</v>
       </c>
       <c r="AO59" t="n">
-        <v>40.05</v>
+        <v>0</v>
       </c>
       <c r="AP59" t="n">
-        <v>71.0116055049231</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AQ59" t="n">
-        <v>71.0116055049231</v>
+        <v>0.7804308298384421</v>
       </c>
       <c r="AR59" t="n">
-        <v>5.392698615628349</v>
+        <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>-273.8473538257946</v>
+        <v>0</v>
       </c>
       <c r="AT59" t="n">
         <v>0</v>
@@ -9876,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="AV59" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="AW59" t="n">
-        <v>3.945106759275656</v>
+        <v>0</v>
       </c>
       <c r="AX59" t="n">
-        <v>-196.7212705715491</v>
+        <v>0</v>
       </c>
       <c r="AY59" t="n">
-        <v>71.0116055049231</v>
+        <v>0.7804308298384421</v>
       </c>
     </row>
     <row r="60">
@@ -9899,7 +9895,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Appui 2</t>
+          <t>Travée 3</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -9926,16 +9922,16 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L60" t="n">
         <v>2.2</v>
       </c>
       <c r="M60" t="n">
-        <v>0.00111</v>
+        <v>0.0008500000000000001</v>
       </c>
       <c r="N60" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O60" t="n">
         <v>1</v>
@@ -9959,53 +9955,53 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="W60" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
       </c>
       <c r="Y60" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Z60" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AC60" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AD60" t="n">
-        <v>52.95</v>
+        <v>40.05</v>
       </c>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="n">
-        <v>38</v>
+        <v>28.8</v>
       </c>
       <c r="AG60" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AH60" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AI60" t="n">
-        <v>5.123739639300916</v>
+        <v>3.924009236896674</v>
       </c>
       <c r="AJ60" t="n">
-        <v>2.08744948267815</v>
+        <v>1.45748914513305</v>
       </c>
       <c r="AK60" t="n">
-        <v>-152.148212310269</v>
+        <v>-140.6377466608308</v>
       </c>
       <c r="AL60" t="n">
-        <v>-61.98630871899847</v>
+        <v>-52.23687733116574</v>
       </c>
       <c r="AM60" t="n">
         <v>0</v>
@@ -10014,19 +10010,19 @@
         <v>0</v>
       </c>
       <c r="AO60" t="n">
-        <v>52.95</v>
+        <v>40.05</v>
       </c>
       <c r="AP60" t="n">
-        <v>82.35141959913695</v>
+        <v>71.0116055049231</v>
       </c>
       <c r="AQ60" t="n">
-        <v>82.35141959913695</v>
+        <v>71.0116055049231</v>
       </c>
       <c r="AR60" t="n">
-        <v>7.163026436654478</v>
+        <v>5.392698615628349</v>
       </c>
       <c r="AS60" t="n">
-        <v>-306.0130848829182</v>
+        <v>-273.8473538257946</v>
       </c>
       <c r="AT60" t="n">
         <v>0</v>
@@ -10035,30 +10031,30 @@
         <v>0</v>
       </c>
       <c r="AV60" t="n">
-        <v>38</v>
+        <v>28.8</v>
       </c>
       <c r="AW60" t="n">
-        <v>5.264189174871436</v>
+        <v>3.945106759275656</v>
       </c>
       <c r="AX60" t="n">
-        <v>-219.2837045729403</v>
+        <v>-196.7212705715491</v>
       </c>
       <c r="AY60" t="n">
-        <v>82.35141959913695</v>
+        <v>71.0116055049231</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>File A - 7</t>
+          <t>File A - 6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Travée 1</t>
+          <t>Appui 2</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -10085,16 +10081,16 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L61" t="n">
         <v>2.2</v>
       </c>
       <c r="M61" t="n">
-        <v>0.0005700000000000001</v>
+        <v>0.00111</v>
       </c>
       <c r="N61" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O61" t="n">
         <v>1</v>
@@ -10109,101 +10105,101 @@
         <v>1</v>
       </c>
       <c r="S61" t="n">
-        <v>2.91e-05</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>23.5</v>
+        <v>27</v>
       </c>
       <c r="W61" t="n">
-        <v>9.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>23.5</v>
+        <v>27</v>
       </c>
       <c r="Z61" t="n">
-        <v>9.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>23.5</v>
+        <v>27</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="n">
-        <v>46.275</v>
+        <v>52.95</v>
       </c>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="n">
-        <v>33.2</v>
+        <v>38</v>
       </c>
       <c r="AG61" t="n">
-        <v>23.5</v>
+        <v>27</v>
       </c>
       <c r="AH61" t="n">
-        <v>9.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="AI61" t="n">
-        <v>4.290604039188493</v>
+        <v>5.123739639300916</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1.649135363156755</v>
+        <v>2.08744948267815</v>
       </c>
       <c r="AK61" t="n">
-        <v>-204.506705756186</v>
+        <v>-152.148212310269</v>
       </c>
       <c r="AL61" t="n">
-        <v>-73.55666887609746</v>
+        <v>-61.98630871899847</v>
       </c>
       <c r="AM61" t="n">
         <v>0</v>
       </c>
       <c r="AN61" t="n">
-        <v>-94.1179014288723</v>
+        <v>0</v>
       </c>
       <c r="AO61" t="n">
-        <v>46.275</v>
+        <v>52.95</v>
       </c>
       <c r="AP61" t="n">
-        <v>54.67237214820803</v>
+        <v>82.35141959913695</v>
       </c>
       <c r="AQ61" t="n">
-        <v>75.51286257239246</v>
+        <v>82.35141959913695</v>
       </c>
       <c r="AR61" t="n">
-        <v>5.602404813678739</v>
+        <v>7.163026436654478</v>
       </c>
       <c r="AS61" t="n">
-        <v>-356.6058155937027</v>
+        <v>-306.0130848829182</v>
       </c>
       <c r="AT61" t="n">
         <v>0</v>
       </c>
       <c r="AU61" t="n">
-        <v>-459.9472680585395</v>
+        <v>0</v>
       </c>
       <c r="AV61" t="n">
-        <v>33.2</v>
+        <v>38</v>
       </c>
       <c r="AW61" t="n">
-        <v>4.377381012671195</v>
+        <v>5.264189174871436</v>
       </c>
       <c r="AX61" t="n">
-        <v>-293.4941314036913</v>
+        <v>-219.2837045729403</v>
       </c>
       <c r="AY61" t="n">
-        <v>54.67237214820803</v>
+        <v>82.35141959913695</v>
       </c>
     </row>
     <row r="62">
@@ -10217,7 +10213,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Appui 1</t>
+          <t>Travée 1</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -10244,16 +10240,16 @@
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L62" t="n">
         <v>2.2</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0016941</v>
+        <v>0.0005700000000000001</v>
       </c>
       <c r="N62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="O62" t="n">
         <v>1</v>
@@ -10274,95 +10270,95 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>75.5</v>
+        <v>23.5</v>
       </c>
       <c r="W62" t="n">
-        <v>26</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
       </c>
       <c r="Y62" t="n">
-        <v>75.5</v>
+        <v>23.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>26</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>75.5</v>
+        <v>23.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>26</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD62" t="n">
-        <v>140.925</v>
+        <v>46.275</v>
       </c>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="n">
-        <v>101.5</v>
+        <v>33.2</v>
       </c>
       <c r="AG62" t="n">
-        <v>75.5</v>
+        <v>23.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>26</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AI62" t="n">
-        <v>13.23883839104407</v>
+        <v>4.290604039188493</v>
       </c>
       <c r="AJ62" t="n">
-        <v>4.154071337722519</v>
+        <v>1.649135363156755</v>
       </c>
       <c r="AK62" t="n">
-        <v>-300.6745282348117</v>
+        <v>-204.506705756186</v>
       </c>
       <c r="AL62" t="n">
-        <v>-88.46336500082514</v>
+        <v>-73.55666887609746</v>
       </c>
       <c r="AM62" t="n">
         <v>0</v>
       </c>
       <c r="AN62" t="n">
-        <v>-152.5854480972197</v>
+        <v>-94.1179014288723</v>
       </c>
       <c r="AO62" t="n">
-        <v>140.925</v>
+        <v>46.275</v>
       </c>
       <c r="AP62" t="n">
-        <v>113.0123605501379</v>
+        <v>54.67237214820803</v>
       </c>
       <c r="AQ62" t="n">
-        <v>153.9603996531451</v>
+        <v>75.51286257239246</v>
       </c>
       <c r="AR62" t="n">
-        <v>15.55919839444363</v>
+        <v>5.602404813678739</v>
       </c>
       <c r="AS62" t="n">
-        <v>-436.0550646061855</v>
+        <v>-356.6058155937027</v>
       </c>
       <c r="AT62" t="n">
         <v>0</v>
       </c>
       <c r="AU62" t="n">
-        <v>-1383.697757940281</v>
+        <v>-459.9472680585395</v>
       </c>
       <c r="AV62" t="n">
-        <v>101.5</v>
+        <v>33.2</v>
       </c>
       <c r="AW62" t="n">
-        <v>11.9189418933913</v>
+        <v>4.377381012671195</v>
       </c>
       <c r="AX62" t="n">
-        <v>-419.6737748608999</v>
+        <v>-293.4941314036913</v>
       </c>
       <c r="AY62" t="n">
-        <v>113.0123605501379</v>
+        <v>54.67237214820803</v>
       </c>
     </row>
     <row r="63">
@@ -10376,7 +10372,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Travée 2</t>
+          <t>Appui 1</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -10403,16 +10399,16 @@
         <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L63" t="n">
         <v>2.2</v>
       </c>
       <c r="M63" t="n">
-        <v>0.0008500000000000001</v>
+        <v>0.0016941</v>
       </c>
       <c r="N63" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O63" t="n">
         <v>1</v>
@@ -10433,107 +10429,111 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
-        <v>32.5</v>
+        <v>75.5</v>
       </c>
       <c r="W63" t="n">
-        <v>12.7</v>
+        <v>26</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>32.5</v>
+        <v>75.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>12.7</v>
+        <v>26</v>
       </c>
       <c r="AA63" t="n">
         <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>32.5</v>
+        <v>75.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>12.7</v>
+        <v>26</v>
       </c>
       <c r="AD63" t="n">
-        <v>62.925</v>
+        <v>140.925</v>
       </c>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="n">
-        <v>45.2</v>
+        <v>101.5</v>
       </c>
       <c r="AG63" t="n">
-        <v>32.5</v>
+        <v>75.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>12.7</v>
+        <v>26</v>
       </c>
       <c r="AI63" t="n">
-        <v>6.072871438054373</v>
+        <v>13.23883839104407</v>
       </c>
       <c r="AJ63" t="n">
-        <v>2.060291496813996</v>
+        <v>4.154071337722519</v>
       </c>
       <c r="AK63" t="n">
-        <v>-217.6536555465239</v>
+        <v>-300.6745282348117</v>
       </c>
       <c r="AL63" t="n">
-        <v>-65.02373982458379</v>
+        <v>-88.46336500082514</v>
       </c>
       <c r="AM63" t="n">
         <v>0</v>
       </c>
       <c r="AN63" t="n">
-        <v>-85.46014271010522</v>
+        <v>-152.5854480972197</v>
       </c>
       <c r="AO63" t="n">
-        <v>62.925</v>
+        <v>140.925</v>
       </c>
       <c r="AP63" t="n">
-        <v>71.0116055049231</v>
+        <v>113.0123605501379</v>
       </c>
       <c r="AQ63" t="n">
-        <v>130.6937967095548</v>
+        <v>153.9603996531451</v>
       </c>
       <c r="AR63" t="n">
-        <v>7.231044927263758</v>
+        <v>15.55919839444363</v>
       </c>
       <c r="AS63" t="n">
-        <v>-328.704692413255</v>
+        <v>-436.0550646061855</v>
       </c>
       <c r="AT63" t="n">
         <v>0</v>
       </c>
       <c r="AU63" t="n">
-        <v>-437.8740705656239</v>
+        <v>-1383.697757940281</v>
       </c>
       <c r="AV63" t="n">
-        <v>45.2</v>
+        <v>101.5</v>
       </c>
       <c r="AW63" t="n">
-        <v>6.036597978077581</v>
+        <v>11.9189418933913</v>
       </c>
       <c r="AX63" t="n">
-        <v>-309.2115903110193</v>
+        <v>-419.6737748608999</v>
       </c>
       <c r="AY63" t="n">
-        <v>71.0116055049231</v>
+        <v>113.0123605501379</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>File A - 8</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>File A - 7</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Travée 2</t>
+        </is>
+      </c>
       <c r="D64" t="n">
         <v>25</v>
       </c>
@@ -10558,13 +10558,13 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L64" t="n">
         <v>2.2</v>
       </c>
       <c r="M64" t="n">
-        <v>1e-05</v>
+        <v>0.0008500000000000001</v>
       </c>
       <c r="N64" t="n">
         <v>0.03</v>
@@ -10582,100 +10582,255 @@
         <v>1</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>2.91e-05</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="AA64" t="n">
         <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>62.925</v>
       </c>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>45.2</v>
       </c>
       <c r="AG64" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
+        <v>6.072871438054373</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0</v>
+        <v>2.060291496813996</v>
       </c>
       <c r="AK64" t="n">
-        <v>0</v>
+        <v>-217.6536555465239</v>
       </c>
       <c r="AL64" t="n">
-        <v>0</v>
+        <v>-65.02373982458379</v>
       </c>
       <c r="AM64" t="n">
         <v>0</v>
       </c>
       <c r="AN64" t="n">
-        <v>0</v>
+        <v>-85.46014271010522</v>
       </c>
       <c r="AO64" t="n">
-        <v>0</v>
+        <v>62.925</v>
       </c>
       <c r="AP64" t="n">
+        <v>71.0116055049231</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>130.6937967095548</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>7.231044927263758</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-328.704692413255</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-437.8740705656239</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>6.036597978077581</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>-309.2115903110193</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>71.0116055049231</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>8</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>File A - 8</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>25</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>500</v>
+      </c>
+      <c r="G65" t="n">
+        <v>220000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1576</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1870</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP65" t="n">
         <v>0.7804308298384421</v>
       </c>
-      <c r="AQ64" t="n">
+      <c r="AQ65" t="n">
         <v>0.7804308298384421</v>
       </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" t="n">
+      <c r="AR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY65" t="n">
         <v>0.7804308298384421</v>
       </c>
     </row>
